--- a/valuation-app/src/test/resources/excel/NewExposures.xlsx
+++ b/valuation-app/src/test/resources/excel/NewExposures.xlsx
@@ -361,9 +361,6 @@
     <t xml:space="preserve">0.19</t>
   </si>
   <si>
-    <t xml:space="preserve">1T</t>
-  </si>
-  <si>
     <t xml:space="preserve">JPY</t>
   </si>
   <si>
@@ -383,6 +380,9 @@
   </si>
   <si>
     <t xml:space="preserve">Morgan Stanley MUFG Securities Co., Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term</t>
   </si>
   <si>
     <t xml:space="preserve">CAD</t>
@@ -427,7 +427,7 @@
     <t xml:space="preserve">CHZU</t>
   </si>
   <si>
-    <t xml:space="preserve">30/360</t>
+    <t xml:space="preserve">30/360 ISDA</t>
   </si>
   <si>
     <t xml:space="preserve">11,000,000.00</t>
@@ -673,7 +673,7 @@
     <t xml:space="preserve">PLWA</t>
   </si>
   <si>
-    <t xml:space="preserve">ACT/ACT.ISDA</t>
+    <t xml:space="preserve">Act/Act ISDA</t>
   </si>
   <si>
     <t xml:space="preserve">2.333</t>
@@ -1154,55 +1154,58 @@
   </sheetPr>
   <dimension ref="A1:AU320"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH4" activeCellId="0" sqref="AH4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W8" activeCellId="0" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="45" min="44" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="47" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.40816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.5459183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.4591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="7.54081632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2091836734694"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="30.4744897959184"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.8775510204082"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.9081632653061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="19.2142857142857"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.5204081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="30.4744897959184"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="20.8775510204082"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="19.9081632653061"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="19.2142857142857"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.5204081632653"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="10.734693877551"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="36.1683673469388"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="10.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,7 +2235,7 @@
         <v>99</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="X8" s="0" t="s">
         <v>56</v>
@@ -2315,7 +2318,7 @@
         <v>455130</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>41248</v>
@@ -2348,22 +2351,22 @@
         <v>62</v>
       </c>
       <c r="Q9" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T9" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T9" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U9" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W9" s="0" t="s">
         <v>56</v>
@@ -2378,28 +2381,28 @@
         <v>44900</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC9" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD9" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE9" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG9" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE9" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG9" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH9" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI9" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ9" s="0" t="s">
         <v>73</v>
@@ -2414,7 +2417,7 @@
         <v>44900</v>
       </c>
       <c r="AN9" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP9" s="0" t="s">
         <v>65</v>
@@ -2423,13 +2426,13 @@
         <v>64</v>
       </c>
       <c r="AR9" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS9" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS9" s="0" t="s">
+      <c r="AT9" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT9" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU9" s="0" t="n">
         <v>12111130</v>
@@ -2449,7 +2452,7 @@
         <v>455131</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>41248</v>
@@ -2482,28 +2485,28 @@
         <v>62</v>
       </c>
       <c r="Q10" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U10" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W10" s="0" t="s">
         <v>73</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y10" s="1" t="n">
         <v>41248</v>
@@ -2512,28 +2515,28 @@
         <v>44900</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC10" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD10" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG10" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE10" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG10" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH10" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ10" s="0" t="s">
         <v>73</v>
@@ -2548,7 +2551,7 @@
         <v>44900</v>
       </c>
       <c r="AN10" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP10" s="0" t="s">
         <v>64</v>
@@ -2557,13 +2560,13 @@
         <v>65</v>
       </c>
       <c r="AR10" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS10" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS10" s="0" t="s">
+      <c r="AT10" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT10" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU10" s="0" t="n">
         <v>12111131</v>
@@ -4810,7 +4813,7 @@
         <v>455154</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>41613</v>
@@ -4846,16 +4849,16 @@
         <v>55</v>
       </c>
       <c r="Q28" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T28" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R28" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S28" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T28" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U28" s="0" t="s">
         <v>59</v>
@@ -4876,22 +4879,22 @@
         <v>62</v>
       </c>
       <c r="AD28" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE28" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG28" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE28" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF28" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG28" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH28" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI28" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ28" s="0" t="s">
         <v>73</v>
@@ -4915,13 +4918,13 @@
         <v>64</v>
       </c>
       <c r="AR28" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS28" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS28" s="0" t="s">
+      <c r="AT28" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT28" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU28" s="0" t="n">
         <v>12111149</v>
@@ -4941,7 +4944,7 @@
         <v>455155</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>41613</v>
@@ -4977,16 +4980,16 @@
         <v>55</v>
       </c>
       <c r="Q29" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T29" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R29" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S29" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T29" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U29" s="0" t="s">
         <v>59</v>
@@ -5007,22 +5010,22 @@
         <v>62</v>
       </c>
       <c r="AD29" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE29" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG29" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE29" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF29" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG29" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH29" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI29" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ29" s="0" t="s">
         <v>73</v>
@@ -5046,13 +5049,13 @@
         <v>64</v>
       </c>
       <c r="AR29" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS29" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS29" s="0" t="s">
+      <c r="AT29" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT29" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU29" s="0" t="n">
         <v>12111150</v>
@@ -6073,7 +6076,7 @@
         <v>99</v>
       </c>
       <c r="W37" s="0" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="X37" s="0" t="s">
         <v>56</v>
@@ -6156,7 +6159,7 @@
         <v>455169</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>41248</v>
@@ -6189,22 +6192,22 @@
         <v>62</v>
       </c>
       <c r="Q38" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T38" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R38" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S38" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T38" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U38" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V38" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W38" s="0" t="s">
         <v>56</v>
@@ -6219,28 +6222,28 @@
         <v>44900</v>
       </c>
       <c r="AA38" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC38" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD38" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE38" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF38" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG38" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE38" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF38" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG38" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH38" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI38" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ38" s="0" t="s">
         <v>73</v>
@@ -6255,7 +6258,7 @@
         <v>44900</v>
       </c>
       <c r="AN38" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP38" s="0" t="s">
         <v>65</v>
@@ -6264,13 +6267,13 @@
         <v>64</v>
       </c>
       <c r="AR38" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS38" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS38" s="0" t="s">
+      <c r="AT38" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT38" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU38" s="0" t="n">
         <v>12111130</v>
@@ -6290,7 +6293,7 @@
         <v>455170</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>41248</v>
@@ -6323,28 +6326,28 @@
         <v>62</v>
       </c>
       <c r="Q39" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R39" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T39" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R39" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S39" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T39" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U39" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V39" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W39" s="0" t="s">
         <v>73</v>
       </c>
       <c r="X39" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y39" s="1" t="n">
         <v>41248</v>
@@ -6353,28 +6356,28 @@
         <v>44900</v>
       </c>
       <c r="AA39" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC39" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD39" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE39" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF39" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG39" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE39" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF39" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG39" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH39" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI39" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ39" s="0" t="s">
         <v>73</v>
@@ -6389,7 +6392,7 @@
         <v>44900</v>
       </c>
       <c r="AN39" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP39" s="0" t="s">
         <v>64</v>
@@ -6398,13 +6401,13 @@
         <v>65</v>
       </c>
       <c r="AR39" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS39" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS39" s="0" t="s">
+      <c r="AT39" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT39" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU39" s="0" t="n">
         <v>12111131</v>
@@ -8651,7 +8654,7 @@
         <v>455188</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F57" s="1" t="n">
         <v>41613</v>
@@ -8687,16 +8690,16 @@
         <v>55</v>
       </c>
       <c r="Q57" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R57" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S57" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T57" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R57" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S57" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T57" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U57" s="0" t="s">
         <v>59</v>
@@ -8717,22 +8720,22 @@
         <v>62</v>
       </c>
       <c r="AD57" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE57" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF57" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG57" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE57" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF57" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG57" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH57" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI57" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ57" s="0" t="s">
         <v>73</v>
@@ -8756,13 +8759,13 @@
         <v>64</v>
       </c>
       <c r="AR57" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS57" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS57" s="0" t="s">
+      <c r="AT57" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT57" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU57" s="0" t="n">
         <v>12111149</v>
@@ -8782,7 +8785,7 @@
         <v>455189</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F58" s="1" t="n">
         <v>41613</v>
@@ -8818,16 +8821,16 @@
         <v>55</v>
       </c>
       <c r="Q58" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R58" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S58" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T58" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R58" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S58" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T58" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U58" s="0" t="s">
         <v>59</v>
@@ -8848,22 +8851,22 @@
         <v>62</v>
       </c>
       <c r="AD58" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE58" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF58" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG58" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE58" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF58" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG58" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH58" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI58" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ58" s="0" t="s">
         <v>73</v>
@@ -8887,13 +8890,13 @@
         <v>64</v>
       </c>
       <c r="AR58" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS58" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS58" s="0" t="s">
+      <c r="AT58" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT58" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU58" s="0" t="n">
         <v>12111150</v>
@@ -9914,7 +9917,7 @@
         <v>99</v>
       </c>
       <c r="W66" s="0" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="X66" s="0" t="s">
         <v>56</v>
@@ -9997,7 +10000,7 @@
         <v>455198</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F67" s="1" t="n">
         <v>41248</v>
@@ -10030,22 +10033,22 @@
         <v>62</v>
       </c>
       <c r="Q67" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R67" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S67" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T67" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R67" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S67" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T67" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U67" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V67" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W67" s="0" t="s">
         <v>56</v>
@@ -10060,28 +10063,28 @@
         <v>44900</v>
       </c>
       <c r="AA67" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC67" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD67" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE67" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF67" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG67" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE67" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF67" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG67" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH67" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI67" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ67" s="0" t="s">
         <v>73</v>
@@ -10096,7 +10099,7 @@
         <v>44900</v>
       </c>
       <c r="AN67" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP67" s="0" t="s">
         <v>65</v>
@@ -10105,13 +10108,13 @@
         <v>64</v>
       </c>
       <c r="AR67" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS67" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS67" s="0" t="s">
+      <c r="AT67" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT67" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU67" s="0" t="n">
         <v>12111130</v>
@@ -10131,7 +10134,7 @@
         <v>455199</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F68" s="1" t="n">
         <v>41248</v>
@@ -10164,28 +10167,28 @@
         <v>62</v>
       </c>
       <c r="Q68" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R68" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S68" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T68" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R68" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S68" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T68" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U68" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V68" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W68" s="0" t="s">
         <v>73</v>
       </c>
       <c r="X68" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y68" s="1" t="n">
         <v>41248</v>
@@ -10194,28 +10197,28 @@
         <v>44900</v>
       </c>
       <c r="AA68" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC68" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD68" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE68" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF68" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG68" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE68" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF68" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG68" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH68" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI68" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ68" s="0" t="s">
         <v>73</v>
@@ -10230,7 +10233,7 @@
         <v>44900</v>
       </c>
       <c r="AN68" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP68" s="0" t="s">
         <v>64</v>
@@ -10239,13 +10242,13 @@
         <v>65</v>
       </c>
       <c r="AR68" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS68" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS68" s="0" t="s">
+      <c r="AT68" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT68" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU68" s="0" t="n">
         <v>12111131</v>
@@ -12492,7 +12495,7 @@
         <v>455217</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F86" s="1" t="n">
         <v>41613</v>
@@ -12528,16 +12531,16 @@
         <v>55</v>
       </c>
       <c r="Q86" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R86" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S86" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T86" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R86" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S86" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T86" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U86" s="0" t="s">
         <v>59</v>
@@ -12558,22 +12561,22 @@
         <v>62</v>
       </c>
       <c r="AD86" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE86" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF86" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG86" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE86" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF86" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG86" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH86" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI86" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ86" s="0" t="s">
         <v>73</v>
@@ -12597,13 +12600,13 @@
         <v>64</v>
       </c>
       <c r="AR86" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS86" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS86" s="0" t="s">
+      <c r="AT86" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT86" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU86" s="0" t="n">
         <v>12111149</v>
@@ -12623,7 +12626,7 @@
         <v>455218</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F87" s="1" t="n">
         <v>41613</v>
@@ -12659,16 +12662,16 @@
         <v>55</v>
       </c>
       <c r="Q87" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R87" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S87" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T87" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R87" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S87" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T87" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U87" s="0" t="s">
         <v>59</v>
@@ -12689,22 +12692,22 @@
         <v>62</v>
       </c>
       <c r="AD87" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE87" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF87" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG87" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE87" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF87" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG87" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH87" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI87" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ87" s="0" t="s">
         <v>73</v>
@@ -12728,13 +12731,13 @@
         <v>64</v>
       </c>
       <c r="AR87" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS87" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS87" s="0" t="s">
+      <c r="AT87" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT87" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU87" s="0" t="n">
         <v>12111150</v>
@@ -13755,7 +13758,7 @@
         <v>99</v>
       </c>
       <c r="W95" s="0" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="X95" s="0" t="s">
         <v>56</v>
@@ -13838,7 +13841,7 @@
         <v>455227</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F96" s="1" t="n">
         <v>41248</v>
@@ -13871,22 +13874,22 @@
         <v>62</v>
       </c>
       <c r="Q96" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R96" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S96" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T96" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R96" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S96" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T96" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U96" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V96" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W96" s="0" t="s">
         <v>56</v>
@@ -13901,28 +13904,28 @@
         <v>44900</v>
       </c>
       <c r="AA96" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC96" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD96" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE96" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF96" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG96" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE96" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF96" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG96" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH96" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI96" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ96" s="0" t="s">
         <v>73</v>
@@ -13937,7 +13940,7 @@
         <v>44900</v>
       </c>
       <c r="AN96" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP96" s="0" t="s">
         <v>65</v>
@@ -13946,13 +13949,13 @@
         <v>64</v>
       </c>
       <c r="AR96" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS96" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS96" s="0" t="s">
+      <c r="AT96" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT96" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU96" s="0" t="n">
         <v>12111130</v>
@@ -13972,7 +13975,7 @@
         <v>455228</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F97" s="1" t="n">
         <v>41248</v>
@@ -14005,28 +14008,28 @@
         <v>62</v>
       </c>
       <c r="Q97" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R97" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S97" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T97" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R97" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S97" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T97" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U97" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V97" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W97" s="0" t="s">
         <v>73</v>
       </c>
       <c r="X97" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y97" s="1" t="n">
         <v>41248</v>
@@ -14035,28 +14038,28 @@
         <v>44900</v>
       </c>
       <c r="AA97" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC97" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD97" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE97" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF97" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG97" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE97" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF97" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG97" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH97" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI97" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ97" s="0" t="s">
         <v>73</v>
@@ -14071,7 +14074,7 @@
         <v>44900</v>
       </c>
       <c r="AN97" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP97" s="0" t="s">
         <v>64</v>
@@ -14080,13 +14083,13 @@
         <v>65</v>
       </c>
       <c r="AR97" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS97" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS97" s="0" t="s">
+      <c r="AT97" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT97" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU97" s="0" t="n">
         <v>12111131</v>
@@ -16333,7 +16336,7 @@
         <v>455246</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F115" s="1" t="n">
         <v>41613</v>
@@ -16369,16 +16372,16 @@
         <v>55</v>
       </c>
       <c r="Q115" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R115" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S115" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T115" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R115" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S115" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T115" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U115" s="0" t="s">
         <v>59</v>
@@ -16399,22 +16402,22 @@
         <v>62</v>
       </c>
       <c r="AD115" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE115" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF115" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG115" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE115" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF115" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG115" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH115" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI115" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ115" s="0" t="s">
         <v>73</v>
@@ -16438,13 +16441,13 @@
         <v>64</v>
       </c>
       <c r="AR115" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS115" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS115" s="0" t="s">
+      <c r="AT115" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT115" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU115" s="0" t="n">
         <v>12111149</v>
@@ -16464,7 +16467,7 @@
         <v>455247</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F116" s="1" t="n">
         <v>41613</v>
@@ -16500,16 +16503,16 @@
         <v>55</v>
       </c>
       <c r="Q116" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R116" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S116" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T116" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R116" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S116" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T116" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U116" s="0" t="s">
         <v>59</v>
@@ -16530,22 +16533,22 @@
         <v>62</v>
       </c>
       <c r="AD116" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE116" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF116" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG116" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE116" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF116" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG116" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH116" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI116" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ116" s="0" t="s">
         <v>73</v>
@@ -16569,13 +16572,13 @@
         <v>64</v>
       </c>
       <c r="AR116" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS116" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS116" s="0" t="s">
+      <c r="AT116" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT116" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU116" s="0" t="n">
         <v>12111150</v>
@@ -17596,7 +17599,7 @@
         <v>99</v>
       </c>
       <c r="W124" s="0" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="X124" s="0" t="s">
         <v>56</v>
@@ -17679,7 +17682,7 @@
         <v>455256</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F125" s="1" t="n">
         <v>41248</v>
@@ -17712,22 +17715,22 @@
         <v>62</v>
       </c>
       <c r="Q125" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R125" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S125" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T125" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R125" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S125" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T125" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U125" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V125" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W125" s="0" t="s">
         <v>56</v>
@@ -17742,28 +17745,28 @@
         <v>44900</v>
       </c>
       <c r="AA125" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC125" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD125" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE125" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF125" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG125" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE125" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF125" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG125" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH125" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI125" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ125" s="0" t="s">
         <v>73</v>
@@ -17778,7 +17781,7 @@
         <v>44900</v>
       </c>
       <c r="AN125" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP125" s="0" t="s">
         <v>65</v>
@@ -17787,13 +17790,13 @@
         <v>64</v>
       </c>
       <c r="AR125" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS125" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS125" s="0" t="s">
+      <c r="AT125" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT125" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU125" s="0" t="n">
         <v>12111130</v>
@@ -17813,7 +17816,7 @@
         <v>455257</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F126" s="1" t="n">
         <v>41248</v>
@@ -17846,28 +17849,28 @@
         <v>62</v>
       </c>
       <c r="Q126" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R126" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S126" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T126" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R126" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S126" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T126" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U126" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V126" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W126" s="0" t="s">
         <v>73</v>
       </c>
       <c r="X126" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y126" s="1" t="n">
         <v>41248</v>
@@ -17876,28 +17879,28 @@
         <v>44900</v>
       </c>
       <c r="AA126" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC126" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD126" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE126" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF126" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG126" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE126" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF126" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG126" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH126" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI126" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ126" s="0" t="s">
         <v>73</v>
@@ -17912,7 +17915,7 @@
         <v>44900</v>
       </c>
       <c r="AN126" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP126" s="0" t="s">
         <v>64</v>
@@ -17921,13 +17924,13 @@
         <v>65</v>
       </c>
       <c r="AR126" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS126" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS126" s="0" t="s">
+      <c r="AT126" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT126" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU126" s="0" t="n">
         <v>12111131</v>
@@ -20174,7 +20177,7 @@
         <v>455275</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F144" s="1" t="n">
         <v>41613</v>
@@ -20210,16 +20213,16 @@
         <v>55</v>
       </c>
       <c r="Q144" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R144" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S144" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T144" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R144" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S144" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T144" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U144" s="0" t="s">
         <v>59</v>
@@ -20240,22 +20243,22 @@
         <v>62</v>
       </c>
       <c r="AD144" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE144" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF144" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG144" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE144" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF144" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG144" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH144" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI144" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ144" s="0" t="s">
         <v>73</v>
@@ -20279,13 +20282,13 @@
         <v>64</v>
       </c>
       <c r="AR144" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS144" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS144" s="0" t="s">
+      <c r="AT144" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT144" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU144" s="0" t="n">
         <v>12111149</v>
@@ -20305,7 +20308,7 @@
         <v>455276</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F145" s="1" t="n">
         <v>41613</v>
@@ -20341,16 +20344,16 @@
         <v>55</v>
       </c>
       <c r="Q145" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R145" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S145" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T145" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R145" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S145" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T145" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U145" s="0" t="s">
         <v>59</v>
@@ -20371,22 +20374,22 @@
         <v>62</v>
       </c>
       <c r="AD145" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE145" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF145" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG145" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE145" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF145" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG145" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH145" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI145" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ145" s="0" t="s">
         <v>73</v>
@@ -20410,13 +20413,13 @@
         <v>64</v>
       </c>
       <c r="AR145" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS145" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS145" s="0" t="s">
+      <c r="AT145" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT145" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU145" s="0" t="n">
         <v>12111150</v>
@@ -21437,7 +21440,7 @@
         <v>99</v>
       </c>
       <c r="W153" s="0" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="X153" s="0" t="s">
         <v>56</v>
@@ -21520,7 +21523,7 @@
         <v>455285</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F154" s="1" t="n">
         <v>41248</v>
@@ -21553,22 +21556,22 @@
         <v>62</v>
       </c>
       <c r="Q154" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R154" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S154" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T154" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R154" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S154" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T154" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U154" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V154" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W154" s="0" t="s">
         <v>56</v>
@@ -21583,28 +21586,28 @@
         <v>44900</v>
       </c>
       <c r="AA154" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC154" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD154" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE154" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF154" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG154" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE154" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF154" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG154" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH154" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI154" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ154" s="0" t="s">
         <v>73</v>
@@ -21619,7 +21622,7 @@
         <v>44900</v>
       </c>
       <c r="AN154" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP154" s="0" t="s">
         <v>65</v>
@@ -21628,13 +21631,13 @@
         <v>64</v>
       </c>
       <c r="AR154" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS154" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS154" s="0" t="s">
+      <c r="AT154" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT154" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU154" s="0" t="n">
         <v>12111130</v>
@@ -21654,7 +21657,7 @@
         <v>455286</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F155" s="1" t="n">
         <v>41248</v>
@@ -21687,28 +21690,28 @@
         <v>62</v>
       </c>
       <c r="Q155" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R155" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S155" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T155" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R155" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S155" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T155" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U155" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V155" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W155" s="0" t="s">
         <v>73</v>
       </c>
       <c r="X155" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y155" s="1" t="n">
         <v>41248</v>
@@ -21717,28 +21720,28 @@
         <v>44900</v>
       </c>
       <c r="AA155" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC155" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD155" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE155" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF155" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG155" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE155" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF155" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG155" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH155" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI155" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ155" s="0" t="s">
         <v>73</v>
@@ -21753,7 +21756,7 @@
         <v>44900</v>
       </c>
       <c r="AN155" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP155" s="0" t="s">
         <v>64</v>
@@ -21762,13 +21765,13 @@
         <v>65</v>
       </c>
       <c r="AR155" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS155" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS155" s="0" t="s">
+      <c r="AT155" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT155" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU155" s="0" t="n">
         <v>12111131</v>
@@ -24015,7 +24018,7 @@
         <v>455304</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F173" s="1" t="n">
         <v>41613</v>
@@ -24051,16 +24054,16 @@
         <v>55</v>
       </c>
       <c r="Q173" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R173" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S173" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T173" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R173" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S173" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T173" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U173" s="0" t="s">
         <v>59</v>
@@ -24081,22 +24084,22 @@
         <v>62</v>
       </c>
       <c r="AD173" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE173" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF173" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG173" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE173" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF173" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG173" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH173" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI173" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ173" s="0" t="s">
         <v>73</v>
@@ -24120,13 +24123,13 @@
         <v>64</v>
       </c>
       <c r="AR173" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS173" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS173" s="0" t="s">
+      <c r="AT173" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT173" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU173" s="0" t="n">
         <v>12111149</v>
@@ -24146,7 +24149,7 @@
         <v>455305</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F174" s="1" t="n">
         <v>41613</v>
@@ -24182,16 +24185,16 @@
         <v>55</v>
       </c>
       <c r="Q174" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R174" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S174" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T174" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R174" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S174" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T174" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U174" s="0" t="s">
         <v>59</v>
@@ -24212,22 +24215,22 @@
         <v>62</v>
       </c>
       <c r="AD174" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE174" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF174" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG174" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE174" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF174" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG174" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH174" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI174" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ174" s="0" t="s">
         <v>73</v>
@@ -24251,13 +24254,13 @@
         <v>64</v>
       </c>
       <c r="AR174" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS174" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS174" s="0" t="s">
+      <c r="AT174" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT174" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU174" s="0" t="n">
         <v>12111150</v>
@@ -25278,7 +25281,7 @@
         <v>99</v>
       </c>
       <c r="W182" s="0" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="X182" s="0" t="s">
         <v>56</v>
@@ -25361,7 +25364,7 @@
         <v>455314</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F183" s="1" t="n">
         <v>41248</v>
@@ -25394,22 +25397,22 @@
         <v>62</v>
       </c>
       <c r="Q183" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R183" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S183" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T183" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R183" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S183" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T183" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U183" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V183" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W183" s="0" t="s">
         <v>56</v>
@@ -25424,28 +25427,28 @@
         <v>44900</v>
       </c>
       <c r="AA183" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC183" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD183" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE183" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF183" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG183" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE183" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF183" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG183" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH183" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI183" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ183" s="0" t="s">
         <v>73</v>
@@ -25460,7 +25463,7 @@
         <v>44900</v>
       </c>
       <c r="AN183" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP183" s="0" t="s">
         <v>65</v>
@@ -25469,13 +25472,13 @@
         <v>64</v>
       </c>
       <c r="AR183" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS183" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS183" s="0" t="s">
+      <c r="AT183" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT183" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU183" s="0" t="n">
         <v>12111130</v>
@@ -25495,7 +25498,7 @@
         <v>455315</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F184" s="1" t="n">
         <v>41248</v>
@@ -25528,28 +25531,28 @@
         <v>62</v>
       </c>
       <c r="Q184" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R184" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S184" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T184" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R184" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S184" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T184" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U184" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V184" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W184" s="0" t="s">
         <v>73</v>
       </c>
       <c r="X184" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y184" s="1" t="n">
         <v>41248</v>
@@ -25558,28 +25561,28 @@
         <v>44900</v>
       </c>
       <c r="AA184" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC184" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD184" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE184" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF184" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG184" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE184" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF184" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG184" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH184" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI184" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ184" s="0" t="s">
         <v>73</v>
@@ -25594,7 +25597,7 @@
         <v>44900</v>
       </c>
       <c r="AN184" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP184" s="0" t="s">
         <v>64</v>
@@ -25603,13 +25606,13 @@
         <v>65</v>
       </c>
       <c r="AR184" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS184" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS184" s="0" t="s">
+      <c r="AT184" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT184" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU184" s="0" t="n">
         <v>12111131</v>
@@ -27856,7 +27859,7 @@
         <v>455333</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F202" s="1" t="n">
         <v>41613</v>
@@ -27892,16 +27895,16 @@
         <v>55</v>
       </c>
       <c r="Q202" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R202" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S202" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T202" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R202" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S202" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T202" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U202" s="0" t="s">
         <v>59</v>
@@ -27922,22 +27925,22 @@
         <v>62</v>
       </c>
       <c r="AD202" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE202" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF202" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG202" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE202" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF202" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG202" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH202" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI202" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ202" s="0" t="s">
         <v>73</v>
@@ -27961,13 +27964,13 @@
         <v>64</v>
       </c>
       <c r="AR202" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS202" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS202" s="0" t="s">
+      <c r="AT202" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT202" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU202" s="0" t="n">
         <v>12111149</v>
@@ -27987,7 +27990,7 @@
         <v>455334</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F203" s="1" t="n">
         <v>41613</v>
@@ -28023,16 +28026,16 @@
         <v>55</v>
       </c>
       <c r="Q203" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R203" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S203" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T203" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R203" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S203" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T203" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U203" s="0" t="s">
         <v>59</v>
@@ -28053,22 +28056,22 @@
         <v>62</v>
       </c>
       <c r="AD203" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE203" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF203" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG203" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE203" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF203" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG203" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH203" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI203" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ203" s="0" t="s">
         <v>73</v>
@@ -28092,13 +28095,13 @@
         <v>64</v>
       </c>
       <c r="AR203" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS203" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS203" s="0" t="s">
+      <c r="AT203" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT203" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU203" s="0" t="n">
         <v>12111150</v>
@@ -29119,7 +29122,7 @@
         <v>99</v>
       </c>
       <c r="W211" s="0" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="X211" s="0" t="s">
         <v>56</v>
@@ -29202,7 +29205,7 @@
         <v>455343</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F212" s="1" t="n">
         <v>41248</v>
@@ -29235,22 +29238,22 @@
         <v>62</v>
       </c>
       <c r="Q212" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R212" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S212" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T212" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R212" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S212" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T212" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U212" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V212" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W212" s="0" t="s">
         <v>56</v>
@@ -29265,28 +29268,28 @@
         <v>44900</v>
       </c>
       <c r="AA212" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC212" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD212" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE212" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF212" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG212" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE212" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF212" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG212" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH212" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI212" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ212" s="0" t="s">
         <v>73</v>
@@ -29301,7 +29304,7 @@
         <v>44900</v>
       </c>
       <c r="AN212" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP212" s="0" t="s">
         <v>65</v>
@@ -29310,13 +29313,13 @@
         <v>64</v>
       </c>
       <c r="AR212" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS212" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS212" s="0" t="s">
+      <c r="AT212" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT212" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU212" s="0" t="n">
         <v>12111130</v>
@@ -29336,7 +29339,7 @@
         <v>455344</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F213" s="1" t="n">
         <v>41248</v>
@@ -29369,28 +29372,28 @@
         <v>62</v>
       </c>
       <c r="Q213" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R213" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S213" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T213" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R213" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S213" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T213" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U213" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V213" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W213" s="0" t="s">
         <v>73</v>
       </c>
       <c r="X213" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y213" s="1" t="n">
         <v>41248</v>
@@ -29399,28 +29402,28 @@
         <v>44900</v>
       </c>
       <c r="AA213" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC213" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD213" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE213" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF213" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG213" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE213" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF213" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG213" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH213" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI213" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ213" s="0" t="s">
         <v>73</v>
@@ -29435,7 +29438,7 @@
         <v>44900</v>
       </c>
       <c r="AN213" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP213" s="0" t="s">
         <v>64</v>
@@ -29444,13 +29447,13 @@
         <v>65</v>
       </c>
       <c r="AR213" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS213" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS213" s="0" t="s">
+      <c r="AT213" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT213" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU213" s="0" t="n">
         <v>12111131</v>
@@ -31697,7 +31700,7 @@
         <v>455362</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F231" s="1" t="n">
         <v>41613</v>
@@ -31733,16 +31736,16 @@
         <v>55</v>
       </c>
       <c r="Q231" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R231" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S231" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T231" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R231" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S231" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T231" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U231" s="0" t="s">
         <v>59</v>
@@ -31763,22 +31766,22 @@
         <v>62</v>
       </c>
       <c r="AD231" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE231" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF231" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG231" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE231" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF231" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG231" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH231" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI231" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ231" s="0" t="s">
         <v>73</v>
@@ -31802,13 +31805,13 @@
         <v>64</v>
       </c>
       <c r="AR231" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS231" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS231" s="0" t="s">
+      <c r="AT231" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT231" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU231" s="0" t="n">
         <v>12111149</v>
@@ -31828,7 +31831,7 @@
         <v>455363</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F232" s="1" t="n">
         <v>41613</v>
@@ -31864,16 +31867,16 @@
         <v>55</v>
       </c>
       <c r="Q232" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R232" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S232" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T232" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R232" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S232" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T232" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U232" s="0" t="s">
         <v>59</v>
@@ -31894,22 +31897,22 @@
         <v>62</v>
       </c>
       <c r="AD232" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE232" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF232" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG232" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE232" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF232" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG232" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH232" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI232" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ232" s="0" t="s">
         <v>73</v>
@@ -31933,13 +31936,13 @@
         <v>64</v>
       </c>
       <c r="AR232" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS232" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS232" s="0" t="s">
+      <c r="AT232" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT232" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU232" s="0" t="n">
         <v>12111150</v>
@@ -32960,7 +32963,7 @@
         <v>99</v>
       </c>
       <c r="W240" s="0" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="X240" s="0" t="s">
         <v>56</v>
@@ -33043,7 +33046,7 @@
         <v>455372</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F241" s="1" t="n">
         <v>41248</v>
@@ -33076,22 +33079,22 @@
         <v>62</v>
       </c>
       <c r="Q241" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R241" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S241" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T241" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R241" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S241" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T241" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U241" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V241" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W241" s="0" t="s">
         <v>56</v>
@@ -33106,28 +33109,28 @@
         <v>44900</v>
       </c>
       <c r="AA241" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC241" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD241" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE241" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF241" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG241" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE241" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF241" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG241" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH241" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI241" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ241" s="0" t="s">
         <v>73</v>
@@ -33142,7 +33145,7 @@
         <v>44900</v>
       </c>
       <c r="AN241" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP241" s="0" t="s">
         <v>65</v>
@@ -33151,13 +33154,13 @@
         <v>64</v>
       </c>
       <c r="AR241" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS241" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS241" s="0" t="s">
+      <c r="AT241" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT241" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU241" s="0" t="n">
         <v>12111130</v>
@@ -33177,7 +33180,7 @@
         <v>455373</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F242" s="1" t="n">
         <v>41248</v>
@@ -33210,28 +33213,28 @@
         <v>62</v>
       </c>
       <c r="Q242" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R242" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S242" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T242" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R242" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S242" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T242" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U242" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V242" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W242" s="0" t="s">
         <v>73</v>
       </c>
       <c r="X242" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y242" s="1" t="n">
         <v>41248</v>
@@ -33240,28 +33243,28 @@
         <v>44900</v>
       </c>
       <c r="AA242" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC242" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD242" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE242" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF242" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG242" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE242" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF242" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG242" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH242" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI242" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ242" s="0" t="s">
         <v>73</v>
@@ -33276,7 +33279,7 @@
         <v>44900</v>
       </c>
       <c r="AN242" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP242" s="0" t="s">
         <v>64</v>
@@ -33285,13 +33288,13 @@
         <v>65</v>
       </c>
       <c r="AR242" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS242" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS242" s="0" t="s">
+      <c r="AT242" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT242" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU242" s="0" t="n">
         <v>12111131</v>
@@ -35538,7 +35541,7 @@
         <v>455391</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F260" s="1" t="n">
         <v>41613</v>
@@ -35574,16 +35577,16 @@
         <v>55</v>
       </c>
       <c r="Q260" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R260" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S260" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T260" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R260" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S260" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T260" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U260" s="0" t="s">
         <v>59</v>
@@ -35604,22 +35607,22 @@
         <v>62</v>
       </c>
       <c r="AD260" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE260" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF260" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG260" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE260" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF260" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG260" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH260" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI260" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ260" s="0" t="s">
         <v>73</v>
@@ -35643,13 +35646,13 @@
         <v>64</v>
       </c>
       <c r="AR260" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS260" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS260" s="0" t="s">
+      <c r="AT260" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT260" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU260" s="0" t="n">
         <v>12111149</v>
@@ -35669,7 +35672,7 @@
         <v>455392</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F261" s="1" t="n">
         <v>41613</v>
@@ -35705,16 +35708,16 @@
         <v>55</v>
       </c>
       <c r="Q261" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R261" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S261" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T261" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R261" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S261" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T261" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U261" s="0" t="s">
         <v>59</v>
@@ -35735,22 +35738,22 @@
         <v>62</v>
       </c>
       <c r="AD261" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE261" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF261" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG261" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE261" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF261" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG261" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH261" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI261" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ261" s="0" t="s">
         <v>73</v>
@@ -35774,13 +35777,13 @@
         <v>64</v>
       </c>
       <c r="AR261" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS261" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS261" s="0" t="s">
+      <c r="AT261" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT261" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU261" s="0" t="n">
         <v>12111150</v>
@@ -36801,7 +36804,7 @@
         <v>99</v>
       </c>
       <c r="W269" s="0" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="X269" s="0" t="s">
         <v>56</v>
@@ -36884,7 +36887,7 @@
         <v>455401</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F270" s="1" t="n">
         <v>41248</v>
@@ -36917,22 +36920,22 @@
         <v>62</v>
       </c>
       <c r="Q270" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R270" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S270" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T270" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R270" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S270" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T270" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U270" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V270" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W270" s="0" t="s">
         <v>56</v>
@@ -36947,28 +36950,28 @@
         <v>44900</v>
       </c>
       <c r="AA270" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC270" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD270" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE270" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF270" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG270" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE270" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF270" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG270" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH270" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI270" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ270" s="0" t="s">
         <v>73</v>
@@ -36983,7 +36986,7 @@
         <v>44900</v>
       </c>
       <c r="AN270" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP270" s="0" t="s">
         <v>65</v>
@@ -36992,13 +36995,13 @@
         <v>64</v>
       </c>
       <c r="AR270" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS270" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS270" s="0" t="s">
+      <c r="AT270" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT270" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU270" s="0" t="n">
         <v>12111130</v>
@@ -37018,7 +37021,7 @@
         <v>455402</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F271" s="1" t="n">
         <v>41248</v>
@@ -37051,28 +37054,28 @@
         <v>62</v>
       </c>
       <c r="Q271" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R271" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S271" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T271" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R271" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S271" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T271" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U271" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V271" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W271" s="0" t="s">
         <v>73</v>
       </c>
       <c r="X271" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y271" s="1" t="n">
         <v>41248</v>
@@ -37081,28 +37084,28 @@
         <v>44900</v>
       </c>
       <c r="AA271" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC271" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD271" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE271" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF271" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG271" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE271" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF271" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG271" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH271" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI271" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ271" s="0" t="s">
         <v>73</v>
@@ -37117,7 +37120,7 @@
         <v>44900</v>
       </c>
       <c r="AN271" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP271" s="0" t="s">
         <v>64</v>
@@ -37126,13 +37129,13 @@
         <v>65</v>
       </c>
       <c r="AR271" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS271" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS271" s="0" t="s">
+      <c r="AT271" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT271" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU271" s="0" t="n">
         <v>12111131</v>
@@ -39379,7 +39382,7 @@
         <v>455420</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F289" s="1" t="n">
         <v>41613</v>
@@ -39415,16 +39418,16 @@
         <v>55</v>
       </c>
       <c r="Q289" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R289" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S289" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T289" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R289" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S289" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T289" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U289" s="0" t="s">
         <v>59</v>
@@ -39445,22 +39448,22 @@
         <v>62</v>
       </c>
       <c r="AD289" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE289" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF289" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG289" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE289" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF289" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG289" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH289" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI289" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ289" s="0" t="s">
         <v>73</v>
@@ -39484,13 +39487,13 @@
         <v>64</v>
       </c>
       <c r="AR289" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS289" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS289" s="0" t="s">
+      <c r="AT289" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT289" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU289" s="0" t="n">
         <v>12111149</v>
@@ -39510,7 +39513,7 @@
         <v>455421</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F290" s="1" t="n">
         <v>41613</v>
@@ -39546,16 +39549,16 @@
         <v>55</v>
       </c>
       <c r="Q290" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R290" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S290" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T290" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R290" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S290" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T290" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U290" s="0" t="s">
         <v>59</v>
@@ -39576,22 +39579,22 @@
         <v>62</v>
       </c>
       <c r="AD290" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE290" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF290" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG290" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE290" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF290" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG290" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH290" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI290" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ290" s="0" t="s">
         <v>73</v>
@@ -39615,13 +39618,13 @@
         <v>64</v>
       </c>
       <c r="AR290" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS290" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS290" s="0" t="s">
+      <c r="AT290" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT290" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU290" s="0" t="n">
         <v>12111150</v>
@@ -40642,7 +40645,7 @@
         <v>99</v>
       </c>
       <c r="W298" s="0" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="X298" s="0" t="s">
         <v>56</v>
@@ -40725,7 +40728,7 @@
         <v>455430</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F299" s="1" t="n">
         <v>41248</v>
@@ -40758,22 +40761,22 @@
         <v>62</v>
       </c>
       <c r="Q299" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R299" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S299" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T299" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R299" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S299" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T299" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U299" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V299" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W299" s="0" t="s">
         <v>56</v>
@@ -40788,28 +40791,28 @@
         <v>44900</v>
       </c>
       <c r="AA299" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC299" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD299" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE299" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF299" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG299" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE299" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF299" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG299" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH299" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI299" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ299" s="0" t="s">
         <v>73</v>
@@ -40824,7 +40827,7 @@
         <v>44900</v>
       </c>
       <c r="AN299" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP299" s="0" t="s">
         <v>65</v>
@@ -40833,13 +40836,13 @@
         <v>64</v>
       </c>
       <c r="AR299" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS299" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS299" s="0" t="s">
+      <c r="AT299" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT299" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU299" s="0" t="n">
         <v>12111130</v>
@@ -40859,7 +40862,7 @@
         <v>455431</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F300" s="1" t="n">
         <v>41248</v>
@@ -40892,28 +40895,28 @@
         <v>62</v>
       </c>
       <c r="Q300" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R300" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S300" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T300" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R300" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S300" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T300" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U300" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V300" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W300" s="0" t="s">
         <v>73</v>
       </c>
       <c r="X300" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y300" s="1" t="n">
         <v>41248</v>
@@ -40922,28 +40925,28 @@
         <v>44900</v>
       </c>
       <c r="AA300" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC300" s="0" t="s">
         <v>62</v>
       </c>
       <c r="AD300" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE300" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF300" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG300" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE300" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF300" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG300" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH300" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI300" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ300" s="0" t="s">
         <v>73</v>
@@ -40958,7 +40961,7 @@
         <v>44900</v>
       </c>
       <c r="AN300" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AP300" s="0" t="s">
         <v>64</v>
@@ -40967,13 +40970,13 @@
         <v>65</v>
       </c>
       <c r="AR300" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS300" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS300" s="0" t="s">
+      <c r="AT300" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT300" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU300" s="0" t="n">
         <v>12111131</v>
@@ -43220,7 +43223,7 @@
         <v>455449</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F318" s="1" t="n">
         <v>41613</v>
@@ -43256,16 +43259,16 @@
         <v>55</v>
       </c>
       <c r="Q318" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R318" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S318" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T318" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R318" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S318" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T318" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U318" s="0" t="s">
         <v>59</v>
@@ -43286,22 +43289,22 @@
         <v>62</v>
       </c>
       <c r="AD318" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE318" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF318" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG318" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE318" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF318" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG318" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH318" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI318" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ318" s="0" t="s">
         <v>73</v>
@@ -43325,13 +43328,13 @@
         <v>64</v>
       </c>
       <c r="AR318" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS318" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS318" s="0" t="s">
+      <c r="AT318" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT318" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU318" s="0" t="n">
         <v>12111149</v>
@@ -43351,7 +43354,7 @@
         <v>455450</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F319" s="1" t="n">
         <v>41613</v>
@@ -43387,16 +43390,16 @@
         <v>55</v>
       </c>
       <c r="Q319" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R319" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S319" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T319" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="R319" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S319" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T319" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U319" s="0" t="s">
         <v>59</v>
@@ -43417,22 +43420,22 @@
         <v>62</v>
       </c>
       <c r="AD319" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE319" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF319" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG319" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="AE319" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF319" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG319" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="AH319" s="0" t="s">
         <v>81</v>
       </c>
       <c r="AI319" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ319" s="0" t="s">
         <v>73</v>
@@ -43456,13 +43459,13 @@
         <v>64</v>
       </c>
       <c r="AR319" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS319" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="AS319" s="0" t="s">
+      <c r="AT319" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="AT319" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="AU319" s="0" t="n">
         <v>12111150</v>
@@ -43617,17 +43620,46 @@
   </sheetPr>
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K36" activeCellId="0" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="18" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.40816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.07142857142857"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.5969387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.54081632653061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.26020408163265"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="30.4744897959184"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.7397959183673"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.9081632653061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.5204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="20.4642857142857"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="17.9642857142857"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.8826530612245"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.734693877551"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="23.8010204081633"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="10.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43956,7 +43988,7 @@
         <v>455139</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>42540</v>
@@ -43992,19 +44024,19 @@
         <v>274</v>
       </c>
       <c r="R4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U4" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W4" s="0" t="s">
         <v>56</v>
@@ -44016,7 +44048,7 @@
         <v>41992</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA4" s="0" t="s">
         <v>280</v>
@@ -44473,7 +44505,7 @@
         <v>455454</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>42540</v>
@@ -44509,19 +44541,19 @@
         <v>274</v>
       </c>
       <c r="R9" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T9" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T9" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U9" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W9" s="0" t="s">
         <v>56</v>
@@ -44533,7 +44565,7 @@
         <v>41992</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA9" s="0" t="s">
         <v>280</v>
@@ -44990,7 +45022,7 @@
         <v>455459</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>42540</v>
@@ -45026,19 +45058,19 @@
         <v>274</v>
       </c>
       <c r="R14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T14" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S14" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T14" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U14" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W14" s="0" t="s">
         <v>56</v>
@@ -45050,7 +45082,7 @@
         <v>41992</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA14" s="0" t="s">
         <v>280</v>
@@ -45507,7 +45539,7 @@
         <v>455464</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>42540</v>
@@ -45543,19 +45575,19 @@
         <v>274</v>
       </c>
       <c r="R19" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T19" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S19" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T19" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U19" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W19" s="0" t="s">
         <v>56</v>
@@ -45567,7 +45599,7 @@
         <v>41992</v>
       </c>
       <c r="Z19" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA19" s="0" t="s">
         <v>280</v>
@@ -46024,7 +46056,7 @@
         <v>455469</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>42540</v>
@@ -46060,19 +46092,19 @@
         <v>274</v>
       </c>
       <c r="R24" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T24" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S24" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T24" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U24" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W24" s="0" t="s">
         <v>56</v>
@@ -46084,7 +46116,7 @@
         <v>41992</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA24" s="0" t="s">
         <v>280</v>
@@ -46541,7 +46573,7 @@
         <v>455474</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>42540</v>
@@ -46577,19 +46609,19 @@
         <v>274</v>
       </c>
       <c r="R29" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T29" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S29" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T29" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U29" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W29" s="0" t="s">
         <v>56</v>
@@ -46601,7 +46633,7 @@
         <v>41992</v>
       </c>
       <c r="Z29" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA29" s="0" t="s">
         <v>280</v>
@@ -47058,7 +47090,7 @@
         <v>455479</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>42540</v>
@@ -47094,19 +47126,19 @@
         <v>274</v>
       </c>
       <c r="R34" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S34" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T34" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S34" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T34" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U34" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W34" s="0" t="s">
         <v>56</v>
@@ -47118,7 +47150,7 @@
         <v>41992</v>
       </c>
       <c r="Z34" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA34" s="0" t="s">
         <v>280</v>
@@ -47575,7 +47607,7 @@
         <v>455484</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>42540</v>
@@ -47611,19 +47643,19 @@
         <v>274</v>
       </c>
       <c r="R39" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T39" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S39" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T39" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U39" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V39" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W39" s="0" t="s">
         <v>56</v>
@@ -47635,7 +47667,7 @@
         <v>41992</v>
       </c>
       <c r="Z39" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA39" s="0" t="s">
         <v>280</v>
@@ -48092,7 +48124,7 @@
         <v>455489</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>42540</v>
@@ -48128,19 +48160,19 @@
         <v>274</v>
       </c>
       <c r="R44" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T44" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S44" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T44" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U44" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V44" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W44" s="0" t="s">
         <v>56</v>
@@ -48152,7 +48184,7 @@
         <v>41992</v>
       </c>
       <c r="Z44" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA44" s="0" t="s">
         <v>280</v>
@@ -48609,7 +48641,7 @@
         <v>455494</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>42540</v>
@@ -48645,19 +48677,19 @@
         <v>274</v>
       </c>
       <c r="R49" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T49" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S49" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T49" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U49" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V49" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W49" s="0" t="s">
         <v>56</v>
@@ -48669,7 +48701,7 @@
         <v>41992</v>
       </c>
       <c r="Z49" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA49" s="0" t="s">
         <v>280</v>
@@ -49126,7 +49158,7 @@
         <v>455499</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F54" s="1" t="n">
         <v>42540</v>
@@ -49162,19 +49194,19 @@
         <v>274</v>
       </c>
       <c r="R54" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S54" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T54" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S54" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T54" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U54" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V54" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W54" s="0" t="s">
         <v>56</v>
@@ -49186,7 +49218,7 @@
         <v>41992</v>
       </c>
       <c r="Z54" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA54" s="0" t="s">
         <v>280</v>
@@ -49643,7 +49675,7 @@
         <v>455504</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F59" s="1" t="n">
         <v>42540</v>
@@ -49679,19 +49711,19 @@
         <v>274</v>
       </c>
       <c r="R59" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T59" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S59" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T59" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U59" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V59" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W59" s="0" t="s">
         <v>56</v>
@@ -49703,7 +49735,7 @@
         <v>41992</v>
       </c>
       <c r="Z59" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA59" s="0" t="s">
         <v>280</v>
@@ -50160,7 +50192,7 @@
         <v>455509</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F64" s="1" t="n">
         <v>42540</v>
@@ -50196,19 +50228,19 @@
         <v>274</v>
       </c>
       <c r="R64" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S64" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T64" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S64" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T64" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U64" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V64" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W64" s="0" t="s">
         <v>56</v>
@@ -50220,7 +50252,7 @@
         <v>41992</v>
       </c>
       <c r="Z64" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA64" s="0" t="s">
         <v>280</v>
@@ -50677,7 +50709,7 @@
         <v>455514</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F69" s="1" t="n">
         <v>42540</v>
@@ -50713,19 +50745,19 @@
         <v>274</v>
       </c>
       <c r="R69" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S69" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T69" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S69" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T69" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U69" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V69" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W69" s="0" t="s">
         <v>56</v>
@@ -50737,7 +50769,7 @@
         <v>41992</v>
       </c>
       <c r="Z69" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA69" s="0" t="s">
         <v>280</v>
@@ -51194,7 +51226,7 @@
         <v>455519</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F74" s="1" t="n">
         <v>42540</v>
@@ -51230,19 +51262,19 @@
         <v>274</v>
       </c>
       <c r="R74" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S74" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T74" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S74" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T74" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U74" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V74" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W74" s="0" t="s">
         <v>56</v>
@@ -51254,7 +51286,7 @@
         <v>41992</v>
       </c>
       <c r="Z74" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA74" s="0" t="s">
         <v>280</v>
@@ -51711,7 +51743,7 @@
         <v>455524</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F79" s="1" t="n">
         <v>42540</v>
@@ -51747,19 +51779,19 @@
         <v>274</v>
       </c>
       <c r="R79" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S79" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T79" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S79" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T79" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U79" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V79" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W79" s="0" t="s">
         <v>56</v>
@@ -51771,7 +51803,7 @@
         <v>41992</v>
       </c>
       <c r="Z79" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA79" s="0" t="s">
         <v>280</v>
@@ -52228,7 +52260,7 @@
         <v>455529</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F84" s="1" t="n">
         <v>42540</v>
@@ -52264,19 +52296,19 @@
         <v>274</v>
       </c>
       <c r="R84" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S84" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T84" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S84" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T84" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U84" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V84" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W84" s="0" t="s">
         <v>56</v>
@@ -52288,7 +52320,7 @@
         <v>41992</v>
       </c>
       <c r="Z84" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA84" s="0" t="s">
         <v>280</v>
@@ -52745,7 +52777,7 @@
         <v>455534</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F89" s="1" t="n">
         <v>42540</v>
@@ -52781,19 +52813,19 @@
         <v>274</v>
       </c>
       <c r="R89" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S89" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T89" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S89" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T89" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U89" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V89" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W89" s="0" t="s">
         <v>56</v>
@@ -52805,7 +52837,7 @@
         <v>41992</v>
       </c>
       <c r="Z89" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA89" s="0" t="s">
         <v>280</v>
@@ -53262,7 +53294,7 @@
         <v>455539</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F94" s="1" t="n">
         <v>42540</v>
@@ -53298,19 +53330,19 @@
         <v>274</v>
       </c>
       <c r="R94" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S94" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T94" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S94" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T94" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U94" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V94" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W94" s="0" t="s">
         <v>56</v>
@@ -53322,7 +53354,7 @@
         <v>41992</v>
       </c>
       <c r="Z94" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA94" s="0" t="s">
         <v>280</v>
@@ -53779,7 +53811,7 @@
         <v>455544</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F99" s="1" t="n">
         <v>42540</v>
@@ -53815,19 +53847,19 @@
         <v>274</v>
       </c>
       <c r="R99" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S99" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T99" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="S99" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T99" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="U99" s="0" t="s">
         <v>81</v>
       </c>
       <c r="V99" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W99" s="0" t="s">
         <v>56</v>
@@ -53839,7 +53871,7 @@
         <v>41992</v>
       </c>
       <c r="Z99" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA99" s="0" t="s">
         <v>280</v>
@@ -54092,17 +54124,57 @@
   </sheetPr>
   <dimension ref="A1:AT101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="18" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="33" min="20" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.40816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="5.5969387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.54081632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2397959183673"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="30.4744897959184"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.6785714285714"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.2142857142857"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.5204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="30.4744897959184"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="19.2142857142857"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="18.5204081632653"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="41" min="40" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="15.8826530612245"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="10.734693877551"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="23.8010204081633"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="10.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="47" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54652,7 +54724,7 @@
         <v>455159</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>42341</v>
@@ -54685,7 +54757,7 @@
         <v>55</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>163</v>
@@ -54715,7 +54787,7 @@
         <v>62</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD5" s="0" t="s">
         <v>163</v>
@@ -55304,7 +55376,7 @@
         <v>455550</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>42341</v>
@@ -55337,7 +55409,7 @@
         <v>55</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>163</v>
@@ -55367,7 +55439,7 @@
         <v>62</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD10" s="0" t="s">
         <v>163</v>
@@ -55956,7 +56028,7 @@
         <v>455555</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>42341</v>
@@ -55989,7 +56061,7 @@
         <v>55</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R15" s="0" t="s">
         <v>163</v>
@@ -56019,7 +56091,7 @@
         <v>62</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD15" s="0" t="s">
         <v>163</v>
@@ -56608,7 +56680,7 @@
         <v>455560</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>42341</v>
@@ -56641,7 +56713,7 @@
         <v>55</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R20" s="0" t="s">
         <v>163</v>
@@ -56671,7 +56743,7 @@
         <v>62</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD20" s="0" t="s">
         <v>163</v>
@@ -57260,7 +57332,7 @@
         <v>455565</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>42341</v>
@@ -57293,7 +57365,7 @@
         <v>55</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R25" s="0" t="s">
         <v>163</v>
@@ -57323,7 +57395,7 @@
         <v>62</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD25" s="0" t="s">
         <v>163</v>
@@ -57912,7 +57984,7 @@
         <v>455570</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>42341</v>
@@ -57945,7 +58017,7 @@
         <v>55</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R30" s="0" t="s">
         <v>163</v>
@@ -57975,7 +58047,7 @@
         <v>62</v>
       </c>
       <c r="AC30" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD30" s="0" t="s">
         <v>163</v>
@@ -58564,7 +58636,7 @@
         <v>455575</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>42341</v>
@@ -58597,7 +58669,7 @@
         <v>55</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R35" s="0" t="s">
         <v>163</v>
@@ -58627,7 +58699,7 @@
         <v>62</v>
       </c>
       <c r="AC35" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD35" s="0" t="s">
         <v>163</v>
@@ -59216,7 +59288,7 @@
         <v>455580</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>42341</v>
@@ -59249,7 +59321,7 @@
         <v>55</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R40" s="0" t="s">
         <v>163</v>
@@ -59279,7 +59351,7 @@
         <v>62</v>
       </c>
       <c r="AC40" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD40" s="0" t="s">
         <v>163</v>
@@ -59868,7 +59940,7 @@
         <v>455585</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>42341</v>
@@ -59901,7 +59973,7 @@
         <v>55</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R45" s="0" t="s">
         <v>163</v>
@@ -59931,7 +60003,7 @@
         <v>62</v>
       </c>
       <c r="AC45" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD45" s="0" t="s">
         <v>163</v>
@@ -60520,7 +60592,7 @@
         <v>455590</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F50" s="1" t="n">
         <v>42341</v>
@@ -60553,7 +60625,7 @@
         <v>55</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R50" s="0" t="s">
         <v>163</v>
@@ -60583,7 +60655,7 @@
         <v>62</v>
       </c>
       <c r="AC50" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD50" s="0" t="s">
         <v>163</v>
@@ -61172,7 +61244,7 @@
         <v>455595</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F55" s="1" t="n">
         <v>42341</v>
@@ -61205,7 +61277,7 @@
         <v>55</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R55" s="0" t="s">
         <v>163</v>
@@ -61235,7 +61307,7 @@
         <v>62</v>
       </c>
       <c r="AC55" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD55" s="0" t="s">
         <v>163</v>
@@ -61824,7 +61896,7 @@
         <v>455600</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F60" s="1" t="n">
         <v>42341</v>
@@ -61857,7 +61929,7 @@
         <v>55</v>
       </c>
       <c r="Q60" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R60" s="0" t="s">
         <v>163</v>
@@ -61887,7 +61959,7 @@
         <v>62</v>
       </c>
       <c r="AC60" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD60" s="0" t="s">
         <v>163</v>
@@ -62476,7 +62548,7 @@
         <v>455605</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F65" s="1" t="n">
         <v>42341</v>
@@ -62509,7 +62581,7 @@
         <v>55</v>
       </c>
       <c r="Q65" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R65" s="0" t="s">
         <v>163</v>
@@ -62539,7 +62611,7 @@
         <v>62</v>
       </c>
       <c r="AC65" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD65" s="0" t="s">
         <v>163</v>
@@ -63128,7 +63200,7 @@
         <v>455610</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F70" s="1" t="n">
         <v>42341</v>
@@ -63161,7 +63233,7 @@
         <v>55</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R70" s="0" t="s">
         <v>163</v>
@@ -63191,7 +63263,7 @@
         <v>62</v>
       </c>
       <c r="AC70" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD70" s="0" t="s">
         <v>163</v>
@@ -63780,7 +63852,7 @@
         <v>455615</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F75" s="1" t="n">
         <v>42341</v>
@@ -63813,7 +63885,7 @@
         <v>55</v>
       </c>
       <c r="Q75" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R75" s="0" t="s">
         <v>163</v>
@@ -63843,7 +63915,7 @@
         <v>62</v>
       </c>
       <c r="AC75" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD75" s="0" t="s">
         <v>163</v>
@@ -64432,7 +64504,7 @@
         <v>455620</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F80" s="1" t="n">
         <v>42341</v>
@@ -64465,7 +64537,7 @@
         <v>55</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R80" s="0" t="s">
         <v>163</v>
@@ -64495,7 +64567,7 @@
         <v>62</v>
       </c>
       <c r="AC80" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD80" s="0" t="s">
         <v>163</v>
@@ -65084,7 +65156,7 @@
         <v>455625</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F85" s="1" t="n">
         <v>42341</v>
@@ -65117,7 +65189,7 @@
         <v>55</v>
       </c>
       <c r="Q85" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R85" s="0" t="s">
         <v>163</v>
@@ -65147,7 +65219,7 @@
         <v>62</v>
       </c>
       <c r="AC85" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD85" s="0" t="s">
         <v>163</v>
@@ -65736,7 +65808,7 @@
         <v>455630</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F90" s="1" t="n">
         <v>42341</v>
@@ -65769,7 +65841,7 @@
         <v>55</v>
       </c>
       <c r="Q90" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R90" s="0" t="s">
         <v>163</v>
@@ -65799,7 +65871,7 @@
         <v>62</v>
       </c>
       <c r="AC90" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD90" s="0" t="s">
         <v>163</v>
@@ -66388,7 +66460,7 @@
         <v>455635</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F95" s="1" t="n">
         <v>42341</v>
@@ -66421,7 +66493,7 @@
         <v>55</v>
       </c>
       <c r="Q95" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R95" s="0" t="s">
         <v>163</v>
@@ -66451,7 +66523,7 @@
         <v>62</v>
       </c>
       <c r="AC95" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD95" s="0" t="s">
         <v>163</v>
@@ -67040,7 +67112,7 @@
         <v>455640</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F100" s="1" t="n">
         <v>42341</v>
@@ -67073,7 +67145,7 @@
         <v>55</v>
       </c>
       <c r="Q100" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R100" s="0" t="s">
         <v>163</v>
@@ -67103,7 +67175,7 @@
         <v>62</v>
       </c>
       <c r="AC100" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD100" s="0" t="s">
         <v>163</v>
@@ -67303,20 +67375,54 @@
   </sheetPr>
   <dimension ref="A1:AP181"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S146" activeCellId="0" sqref="S146"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L45" activeCellId="0" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="30" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.40816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.54081632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.2091836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="30.4744897959184"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.6785714285714"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.9081632653061"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.2142857142857"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.5204081632653"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="30.4744897959184"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="24.219387755102"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="19.9081632653061"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="19.2142857142857"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="18.5204081632653"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="39" min="38" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="13.2397959183673"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="12.6785714285714"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67750,7 +67856,7 @@
         <v>325</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB4" s="0" t="s">
         <v>57</v>
@@ -68098,7 +68204,7 @@
         <v>325</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB7" s="0" t="s">
         <v>57</v>
@@ -68562,7 +68668,7 @@
         <v>242</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB11" s="0" t="s">
         <v>57</v>
@@ -69142,7 +69248,7 @@
         <v>325</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB16" s="0" t="s">
         <v>57</v>
@@ -69490,7 +69596,7 @@
         <v>325</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB19" s="0" t="s">
         <v>57</v>
@@ -69954,7 +70060,7 @@
         <v>242</v>
       </c>
       <c r="AA23" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB23" s="0" t="s">
         <v>57</v>
@@ -70534,7 +70640,7 @@
         <v>325</v>
       </c>
       <c r="AA28" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB28" s="0" t="s">
         <v>57</v>
@@ -70882,7 +70988,7 @@
         <v>325</v>
       </c>
       <c r="AA31" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB31" s="0" t="s">
         <v>57</v>
@@ -71346,7 +71452,7 @@
         <v>242</v>
       </c>
       <c r="AA35" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB35" s="0" t="s">
         <v>57</v>
@@ -71926,7 +72032,7 @@
         <v>325</v>
       </c>
       <c r="AA40" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB40" s="0" t="s">
         <v>57</v>
@@ -72274,7 +72380,7 @@
         <v>325</v>
       </c>
       <c r="AA43" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB43" s="0" t="s">
         <v>57</v>
@@ -72738,7 +72844,7 @@
         <v>242</v>
       </c>
       <c r="AA47" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB47" s="0" t="s">
         <v>57</v>
@@ -73318,7 +73424,7 @@
         <v>325</v>
       </c>
       <c r="AA52" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB52" s="0" t="s">
         <v>57</v>
@@ -73666,7 +73772,7 @@
         <v>325</v>
       </c>
       <c r="AA55" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB55" s="0" t="s">
         <v>57</v>
@@ -74130,7 +74236,7 @@
         <v>242</v>
       </c>
       <c r="AA59" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB59" s="0" t="s">
         <v>57</v>
@@ -74710,7 +74816,7 @@
         <v>325</v>
       </c>
       <c r="AA64" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB64" s="0" t="s">
         <v>57</v>
@@ -75058,7 +75164,7 @@
         <v>325</v>
       </c>
       <c r="AA67" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB67" s="0" t="s">
         <v>57</v>
@@ -75522,7 +75628,7 @@
         <v>242</v>
       </c>
       <c r="AA71" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB71" s="0" t="s">
         <v>57</v>
@@ -76102,7 +76208,7 @@
         <v>325</v>
       </c>
       <c r="AA76" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB76" s="0" t="s">
         <v>57</v>
@@ -76450,7 +76556,7 @@
         <v>325</v>
       </c>
       <c r="AA79" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB79" s="0" t="s">
         <v>57</v>
@@ -76914,7 +77020,7 @@
         <v>242</v>
       </c>
       <c r="AA83" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB83" s="0" t="s">
         <v>57</v>
@@ -77494,7 +77600,7 @@
         <v>325</v>
       </c>
       <c r="AA88" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB88" s="0" t="s">
         <v>57</v>
@@ -77842,7 +77948,7 @@
         <v>325</v>
       </c>
       <c r="AA91" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB91" s="0" t="s">
         <v>57</v>
@@ -78306,7 +78412,7 @@
         <v>242</v>
       </c>
       <c r="AA95" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB95" s="0" t="s">
         <v>57</v>
@@ -78886,7 +78992,7 @@
         <v>325</v>
       </c>
       <c r="AA100" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB100" s="0" t="s">
         <v>57</v>
@@ -79234,7 +79340,7 @@
         <v>325</v>
       </c>
       <c r="AA103" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB103" s="0" t="s">
         <v>57</v>
@@ -79698,7 +79804,7 @@
         <v>242</v>
       </c>
       <c r="AA107" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB107" s="0" t="s">
         <v>57</v>
@@ -80278,7 +80384,7 @@
         <v>325</v>
       </c>
       <c r="AA112" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB112" s="0" t="s">
         <v>57</v>
@@ -80626,7 +80732,7 @@
         <v>325</v>
       </c>
       <c r="AA115" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB115" s="0" t="s">
         <v>57</v>
@@ -81090,7 +81196,7 @@
         <v>242</v>
       </c>
       <c r="AA119" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB119" s="0" t="s">
         <v>57</v>
@@ -81670,7 +81776,7 @@
         <v>325</v>
       </c>
       <c r="AA124" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB124" s="0" t="s">
         <v>57</v>
@@ -82018,7 +82124,7 @@
         <v>325</v>
       </c>
       <c r="AA127" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB127" s="0" t="s">
         <v>57</v>
@@ -82482,7 +82588,7 @@
         <v>242</v>
       </c>
       <c r="AA131" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB131" s="0" t="s">
         <v>57</v>
@@ -83062,7 +83168,7 @@
         <v>325</v>
       </c>
       <c r="AA136" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB136" s="0" t="s">
         <v>57</v>
@@ -83410,7 +83516,7 @@
         <v>325</v>
       </c>
       <c r="AA139" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB139" s="0" t="s">
         <v>57</v>
@@ -83874,7 +83980,7 @@
         <v>242</v>
       </c>
       <c r="AA143" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB143" s="0" t="s">
         <v>57</v>
@@ -84454,7 +84560,7 @@
         <v>325</v>
       </c>
       <c r="AA148" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB148" s="0" t="s">
         <v>57</v>
@@ -84802,7 +84908,7 @@
         <v>325</v>
       </c>
       <c r="AA151" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB151" s="0" t="s">
         <v>57</v>
@@ -85266,7 +85372,7 @@
         <v>242</v>
       </c>
       <c r="AA155" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB155" s="0" t="s">
         <v>57</v>
@@ -85846,7 +85952,7 @@
         <v>325</v>
       </c>
       <c r="AA160" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB160" s="0" t="s">
         <v>57</v>
@@ -86194,7 +86300,7 @@
         <v>325</v>
       </c>
       <c r="AA163" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB163" s="0" t="s">
         <v>57</v>
@@ -86658,7 +86764,7 @@
         <v>242</v>
       </c>
       <c r="AA167" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB167" s="0" t="s">
         <v>57</v>
@@ -87238,7 +87344,7 @@
         <v>325</v>
       </c>
       <c r="AA172" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB172" s="0" t="s">
         <v>57</v>
@@ -87586,7 +87692,7 @@
         <v>325</v>
       </c>
       <c r="AA175" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB175" s="0" t="s">
         <v>57</v>
@@ -88050,7 +88156,7 @@
         <v>242</v>
       </c>
       <c r="AA179" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB179" s="0" t="s">
         <v>57</v>

--- a/valuation-app/src/test/resources/excel/NewExposures.xlsx
+++ b/valuation-app/src/test/resources/excel/NewExposures.xlsx
@@ -571,7 +571,7 @@
     <t xml:space="preserve">3.1</t>
   </si>
   <si>
-    <t xml:space="preserve">DKK-CIBOR2-DKNA13</t>
+    <t xml:space="preserve">DKK-CIBOR-DKNA13</t>
   </si>
   <si>
     <t xml:space="preserve">HKD</t>
@@ -1163,58 +1163,57 @@
   </sheetPr>
   <dimension ref="A1:AU320"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB305" activeCellId="1" sqref="D2:D181 AB305"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI19" activeCellId="0" sqref="AI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43630,45 +43629,43 @@
   <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K36" activeCellId="1" sqref="D2:D181 K36"/>
+      <selection pane="topLeft" activeCell="K36" activeCellId="0" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54134,57 +54131,55 @@
   <dimension ref="A1:AT101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA101" activeCellId="1" sqref="D2:D181 AA101"/>
+      <selection pane="topLeft" activeCell="AA101" activeCellId="0" sqref="AA101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="41" min="40" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="47" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="41" min="40" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="47" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67386,53 +67381,52 @@
   <dimension ref="A1:AP181"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A144" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D181"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="39" min="38" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="39" min="38" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/valuation-app/src/test/resources/excel/NewExposures.xlsx
+++ b/valuation-app/src/test/resources/excel/NewExposures.xlsx
@@ -748,7 +748,7 @@
     <t xml:space="preserve">SGSI</t>
   </si>
   <si>
-    <t xml:space="preserve">SGD-SOR-VWAP</t>
+    <t xml:space="preserve">SGD-SOR-Reuters</t>
   </si>
   <si>
     <t xml:space="preserve">SGX</t>
@@ -1163,57 +1163,58 @@
   </sheetPr>
   <dimension ref="A1:AU320"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI19" activeCellId="0" sqref="AI19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI26" activeCellId="15" sqref="AE12:AE13 AE24:AE25 AE36:AE37 AE48:AE49 AE60:AE61 AE72:AE73 AE84:AE85 AE96:AE97 AE108:AE109 AE120:AE121 AE132:AE133 AE144:AE145 AE156:AE157 AE168:AE169 AE180:AE181 AI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43629,43 +43630,44 @@
   <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K36" activeCellId="0" sqref="K36"/>
+      <selection pane="topLeft" activeCell="K36" activeCellId="15" sqref="AE12:AE13 AE24:AE25 AE36:AE37 AE48:AE49 AE60:AE61 AE72:AE73 AE84:AE85 AE96:AE97 AE108:AE109 AE120:AE121 AE132:AE133 AE144:AE145 AE156:AE157 AE168:AE169 AE180:AE181 K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54131,55 +54133,57 @@
   <dimension ref="A1:AT101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA101" activeCellId="0" sqref="AA101"/>
+      <selection pane="topLeft" activeCell="AA101" activeCellId="15" sqref="AE12:AE13 AE24:AE25 AE36:AE37 AE48:AE49 AE60:AE61 AE72:AE73 AE84:AE85 AE96:AE97 AE108:AE109 AE120:AE121 AE132:AE133 AE144:AE145 AE156:AE157 AE168:AE169 AE180:AE181 AA101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="41" min="40" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="47" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="41" min="40" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="47" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67380,53 +67384,54 @@
   </sheetPr>
   <dimension ref="A1:AP181"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A144" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="15" sqref="AE12:AE13 AE24:AE25 AE36:AE37 AE48:AE49 AE60:AE61 AE72:AE73 AE84:AE85 AE96:AE97 AE108:AE109 AE120:AE121 AE132:AE133 AE144:AE145 AE156:AE157 AE168:AE169 AE180:AE181 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="39" min="38" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="39" min="38" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/valuation-app/src/test/resources/excel/NewExposures.xlsx
+++ b/valuation-app/src/test/resources/excel/NewExposures.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IRS-Cleared" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19458" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19498" uniqueCount="343">
   <si>
     <t xml:space="preserve">Value Date</t>
   </si>
@@ -1163,58 +1163,57 @@
   </sheetPr>
   <dimension ref="A1:AU320"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI26" activeCellId="15" sqref="AE12:AE13 AE24:AE25 AE36:AE37 AE48:AE49 AE60:AE61 AE72:AE73 AE84:AE85 AE96:AE97 AE108:AE109 AE120:AE121 AE132:AE133 AE144:AE145 AE156:AE157 AE168:AE169 AE180:AE181 AI26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V241" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43630,44 +43629,44 @@
   <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K36" activeCellId="15" sqref="AE12:AE13 AE24:AE25 AE36:AE37 AE48:AE49 AE60:AE61 AE72:AE73 AE84:AE85 AE96:AE97 AE108:AE109 AE120:AE121 AE132:AE133 AE144:AE145 AE156:AE157 AE168:AE169 AE180:AE181 K36"/>
+      <selection pane="topLeft" activeCell="K36" activeCellId="0" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54132,58 +54131,57 @@
   </sheetPr>
   <dimension ref="A1:AT101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA101" activeCellId="15" sqref="AE12:AE13 AE24:AE25 AE36:AE37 AE48:AE49 AE60:AE61 AE72:AE73 AE84:AE85 AE96:AE97 AE108:AE109 AE120:AE121 AE132:AE133 AE144:AE145 AE156:AE157 AE168:AE169 AE180:AE181 AA101"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AL4" activeCellId="0" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="41" min="40" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="47" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.40816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="5.5969387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.54081632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2397959183673"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="30.4744897959184"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.6785714285714"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.2142857142857"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.5204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="30.4744897959184"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="19.2142857142857"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="18.5204081632653"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="41" min="40" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="15.8826530612245"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="10.734693877551"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="23.8010204081633"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="10.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="47" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54786,8 +54784,8 @@
       <c r="Y5" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z5" s="0" t="n">
-        <v>400</v>
+      <c r="Z5" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA5" s="0" t="s">
         <v>142</v>
@@ -54822,8 +54820,8 @@
       <c r="AK5" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL5" s="0" t="n">
-        <v>400</v>
+      <c r="AL5" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN5" s="0" t="s">
         <v>64</v>
@@ -55438,8 +55436,8 @@
       <c r="Y10" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z10" s="0" t="n">
-        <v>400</v>
+      <c r="Z10" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA10" s="0" t="s">
         <v>142</v>
@@ -55474,8 +55472,8 @@
       <c r="AK10" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL10" s="0" t="n">
-        <v>400</v>
+      <c r="AL10" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN10" s="0" t="s">
         <v>64</v>
@@ -56090,8 +56088,8 @@
       <c r="Y15" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z15" s="0" t="n">
-        <v>400</v>
+      <c r="Z15" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA15" s="0" t="s">
         <v>142</v>
@@ -56126,8 +56124,8 @@
       <c r="AK15" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL15" s="0" t="n">
-        <v>400</v>
+      <c r="AL15" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN15" s="0" t="s">
         <v>64</v>
@@ -56742,8 +56740,8 @@
       <c r="Y20" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z20" s="0" t="n">
-        <v>400</v>
+      <c r="Z20" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA20" s="0" t="s">
         <v>142</v>
@@ -56778,8 +56776,8 @@
       <c r="AK20" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL20" s="0" t="n">
-        <v>400</v>
+      <c r="AL20" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN20" s="0" t="s">
         <v>64</v>
@@ -57394,8 +57392,8 @@
       <c r="Y25" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z25" s="0" t="n">
-        <v>400</v>
+      <c r="Z25" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA25" s="0" t="s">
         <v>142</v>
@@ -57430,8 +57428,8 @@
       <c r="AK25" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL25" s="0" t="n">
-        <v>400</v>
+      <c r="AL25" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN25" s="0" t="s">
         <v>64</v>
@@ -58046,8 +58044,8 @@
       <c r="Y30" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z30" s="0" t="n">
-        <v>400</v>
+      <c r="Z30" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA30" s="0" t="s">
         <v>142</v>
@@ -58082,8 +58080,8 @@
       <c r="AK30" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL30" s="0" t="n">
-        <v>400</v>
+      <c r="AL30" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN30" s="0" t="s">
         <v>64</v>
@@ -58698,8 +58696,8 @@
       <c r="Y35" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z35" s="0" t="n">
-        <v>400</v>
+      <c r="Z35" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA35" s="0" t="s">
         <v>142</v>
@@ -58734,8 +58732,8 @@
       <c r="AK35" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL35" s="0" t="n">
-        <v>400</v>
+      <c r="AL35" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN35" s="0" t="s">
         <v>64</v>
@@ -59350,8 +59348,8 @@
       <c r="Y40" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z40" s="0" t="n">
-        <v>400</v>
+      <c r="Z40" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA40" s="0" t="s">
         <v>142</v>
@@ -59386,8 +59384,8 @@
       <c r="AK40" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL40" s="0" t="n">
-        <v>400</v>
+      <c r="AL40" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN40" s="0" t="s">
         <v>64</v>
@@ -60002,8 +60000,8 @@
       <c r="Y45" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z45" s="0" t="n">
-        <v>400</v>
+      <c r="Z45" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA45" s="0" t="s">
         <v>142</v>
@@ -60038,8 +60036,8 @@
       <c r="AK45" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL45" s="0" t="n">
-        <v>400</v>
+      <c r="AL45" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN45" s="0" t="s">
         <v>64</v>
@@ -60654,8 +60652,8 @@
       <c r="Y50" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z50" s="0" t="n">
-        <v>400</v>
+      <c r="Z50" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA50" s="0" t="s">
         <v>142</v>
@@ -60690,8 +60688,8 @@
       <c r="AK50" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL50" s="0" t="n">
-        <v>400</v>
+      <c r="AL50" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN50" s="0" t="s">
         <v>64</v>
@@ -61306,8 +61304,8 @@
       <c r="Y55" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z55" s="0" t="n">
-        <v>400</v>
+      <c r="Z55" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA55" s="0" t="s">
         <v>142</v>
@@ -61342,8 +61340,8 @@
       <c r="AK55" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL55" s="0" t="n">
-        <v>400</v>
+      <c r="AL55" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN55" s="0" t="s">
         <v>64</v>
@@ -61958,8 +61956,8 @@
       <c r="Y60" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z60" s="0" t="n">
-        <v>400</v>
+      <c r="Z60" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA60" s="0" t="s">
         <v>142</v>
@@ -61994,8 +61992,8 @@
       <c r="AK60" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL60" s="0" t="n">
-        <v>400</v>
+      <c r="AL60" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN60" s="0" t="s">
         <v>64</v>
@@ -62610,8 +62608,8 @@
       <c r="Y65" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z65" s="0" t="n">
-        <v>400</v>
+      <c r="Z65" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA65" s="0" t="s">
         <v>142</v>
@@ -62646,8 +62644,8 @@
       <c r="AK65" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL65" s="0" t="n">
-        <v>400</v>
+      <c r="AL65" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN65" s="0" t="s">
         <v>64</v>
@@ -63262,8 +63260,8 @@
       <c r="Y70" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z70" s="0" t="n">
-        <v>400</v>
+      <c r="Z70" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA70" s="0" t="s">
         <v>142</v>
@@ -63298,8 +63296,8 @@
       <c r="AK70" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL70" s="0" t="n">
-        <v>400</v>
+      <c r="AL70" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN70" s="0" t="s">
         <v>64</v>
@@ -63914,8 +63912,8 @@
       <c r="Y75" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z75" s="0" t="n">
-        <v>400</v>
+      <c r="Z75" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA75" s="0" t="s">
         <v>142</v>
@@ -63950,8 +63948,8 @@
       <c r="AK75" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL75" s="0" t="n">
-        <v>400</v>
+      <c r="AL75" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN75" s="0" t="s">
         <v>64</v>
@@ -64566,8 +64564,8 @@
       <c r="Y80" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z80" s="0" t="n">
-        <v>400</v>
+      <c r="Z80" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA80" s="0" t="s">
         <v>142</v>
@@ -64602,8 +64600,8 @@
       <c r="AK80" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL80" s="0" t="n">
-        <v>400</v>
+      <c r="AL80" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN80" s="0" t="s">
         <v>64</v>
@@ -65218,8 +65216,8 @@
       <c r="Y85" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z85" s="0" t="n">
-        <v>400</v>
+      <c r="Z85" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA85" s="0" t="s">
         <v>142</v>
@@ -65254,8 +65252,8 @@
       <c r="AK85" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL85" s="0" t="n">
-        <v>400</v>
+      <c r="AL85" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN85" s="0" t="s">
         <v>64</v>
@@ -65870,8 +65868,8 @@
       <c r="Y90" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z90" s="0" t="n">
-        <v>400</v>
+      <c r="Z90" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA90" s="0" t="s">
         <v>142</v>
@@ -65906,8 +65904,8 @@
       <c r="AK90" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL90" s="0" t="n">
-        <v>400</v>
+      <c r="AL90" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN90" s="0" t="s">
         <v>64</v>
@@ -66522,8 +66520,8 @@
       <c r="Y95" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z95" s="0" t="n">
-        <v>400</v>
+      <c r="Z95" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA95" s="0" t="s">
         <v>142</v>
@@ -66558,8 +66556,8 @@
       <c r="AK95" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL95" s="0" t="n">
-        <v>400</v>
+      <c r="AL95" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN95" s="0" t="s">
         <v>64</v>
@@ -67174,8 +67172,8 @@
       <c r="Y100" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="Z100" s="0" t="n">
-        <v>400</v>
+      <c r="Z100" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AA100" s="0" t="s">
         <v>142</v>
@@ -67210,8 +67208,8 @@
       <c r="AK100" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="AL100" s="0" t="n">
-        <v>400</v>
+      <c r="AL100" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AN100" s="0" t="s">
         <v>64</v>
@@ -67384,54 +67382,53 @@
   </sheetPr>
   <dimension ref="A1:AP181"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="15" sqref="AE12:AE13 AE24:AE25 AE36:AE37 AE48:AE49 AE60:AE61 AE72:AE73 AE84:AE85 AE96:AE97 AE108:AE109 AE120:AE121 AE132:AE133 AE144:AE145 AE156:AE157 AE168:AE169 AE180:AE181 D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="39" min="38" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="39" min="38" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/valuation-app/src/test/resources/excel/NewExposures.xlsx
+++ b/valuation-app/src/test/resources/excel/NewExposures.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IRS-Cleared" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19498" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19498" uniqueCount="340">
   <si>
     <t xml:space="preserve">Value Date</t>
   </si>
@@ -1012,7 +1012,7 @@
     <t xml:space="preserve">0.07804</t>
   </si>
   <si>
-    <t xml:space="preserve">INR-MIBOR</t>
+    <t xml:space="preserve">INR-MIFOR</t>
   </si>
   <si>
     <t xml:space="preserve">1D</t>
@@ -1028,9 +1028,6 @@
   </si>
   <si>
     <t xml:space="preserve">0.07476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INR-MIBOR-OIS-Swap Rate</t>
   </si>
   <si>
     <t xml:space="preserve">0.07612</t>
@@ -1157,58 +1154,57 @@
   </sheetPr>
   <dimension ref="A1:AU320"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z313" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P137" activeCellId="1" sqref="P122 P137"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z286" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P137" activeCellId="0" sqref="P137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43624,43 +43620,45 @@
   <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T6" activeCellId="1" sqref="P122 T6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.40816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.07142857142857"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.5969387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.54081632653061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.26020408163265"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="30.4744897959184"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.7397959183673"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.9081632653061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.5204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="20.4642857142857"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="17.9642857142857"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.8826530612245"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.734693877551"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="23.8010204081633"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="10.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54125,57 +54123,57 @@
   </sheetPr>
   <dimension ref="A1:AT101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL4" activeCellId="1" sqref="P122 AL4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="41" min="40" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.40816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="5.5969387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.54081632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2397959183673"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="30.4744897959184"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.6785714285714"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.2142857142857"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.5204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="11.9897959183673"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="30.4744897959184"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="19.2142857142857"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="18.5204081632653"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.5765306122449"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="18.2397959183673"/>
+    <col collapsed="false" hidden="false" max="41" min="40" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="15.8826530612245"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="10.734693877551"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="23.8010204081633"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="10.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="47" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67376,54 +67374,53 @@
   </sheetPr>
   <dimension ref="A1:AP181"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P122" activeCellId="0" sqref="P122"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE90" activeCellId="0" sqref="AE90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="39" min="38" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="39" min="38" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68101,7 +68098,7 @@
         <v>59</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF6" s="0" t="s">
         <v>330</v>
@@ -68196,7 +68193,7 @@
         <v>60</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y7" s="0" t="s">
         <v>62</v>
@@ -68217,7 +68214,7 @@
         <v>59</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF7" s="0" t="s">
         <v>330</v>
@@ -68363,7 +68360,7 @@
         <v>12011167</v>
       </c>
       <c r="AP8" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68479,7 +68476,7 @@
         <v>12011168</v>
       </c>
       <c r="AP9" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68544,7 +68541,7 @@
         <v>60</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y10" s="0" t="s">
         <v>62</v>
@@ -68595,7 +68592,7 @@
         <v>12011169</v>
       </c>
       <c r="AP10" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68711,7 +68708,7 @@
         <v>12011170</v>
       </c>
       <c r="AP11" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68827,7 +68824,7 @@
         <v>12011171</v>
       </c>
       <c r="AP12" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68943,7 +68940,7 @@
         <v>12011172</v>
       </c>
       <c r="AP13" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69493,7 +69490,7 @@
         <v>59</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF18" s="0" t="s">
         <v>330</v>
@@ -69588,7 +69585,7 @@
         <v>60</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y19" s="0" t="s">
         <v>62</v>
@@ -69609,7 +69606,7 @@
         <v>59</v>
       </c>
       <c r="AE19" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF19" s="0" t="s">
         <v>330</v>
@@ -69755,7 +69752,7 @@
         <v>12011167</v>
       </c>
       <c r="AP20" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69871,7 +69868,7 @@
         <v>12011168</v>
       </c>
       <c r="AP21" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69936,7 +69933,7 @@
         <v>60</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y22" s="0" t="s">
         <v>62</v>
@@ -69987,7 +69984,7 @@
         <v>12011169</v>
       </c>
       <c r="AP22" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70103,7 +70100,7 @@
         <v>12011170</v>
       </c>
       <c r="AP23" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70219,7 +70216,7 @@
         <v>12011171</v>
       </c>
       <c r="AP24" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70335,7 +70332,7 @@
         <v>12011172</v>
       </c>
       <c r="AP25" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70885,7 +70882,7 @@
         <v>59</v>
       </c>
       <c r="AE30" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF30" s="0" t="s">
         <v>330</v>
@@ -70980,7 +70977,7 @@
         <v>60</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y31" s="0" t="s">
         <v>62</v>
@@ -71001,7 +70998,7 @@
         <v>59</v>
       </c>
       <c r="AE31" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF31" s="0" t="s">
         <v>330</v>
@@ -71147,7 +71144,7 @@
         <v>12011167</v>
       </c>
       <c r="AP32" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -71263,7 +71260,7 @@
         <v>12011168</v>
       </c>
       <c r="AP33" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -71328,7 +71325,7 @@
         <v>60</v>
       </c>
       <c r="X34" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y34" s="0" t="s">
         <v>62</v>
@@ -71379,7 +71376,7 @@
         <v>12011169</v>
       </c>
       <c r="AP34" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -71495,7 +71492,7 @@
         <v>12011170</v>
       </c>
       <c r="AP35" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -71611,7 +71608,7 @@
         <v>12011171</v>
       </c>
       <c r="AP36" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -71727,7 +71724,7 @@
         <v>12011172</v>
       </c>
       <c r="AP37" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -72277,7 +72274,7 @@
         <v>59</v>
       </c>
       <c r="AE42" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF42" s="0" t="s">
         <v>330</v>
@@ -72372,7 +72369,7 @@
         <v>60</v>
       </c>
       <c r="X43" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y43" s="0" t="s">
         <v>62</v>
@@ -72393,7 +72390,7 @@
         <v>59</v>
       </c>
       <c r="AE43" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF43" s="0" t="s">
         <v>330</v>
@@ -72539,7 +72536,7 @@
         <v>12011167</v>
       </c>
       <c r="AP44" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -72655,7 +72652,7 @@
         <v>12011168</v>
       </c>
       <c r="AP45" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -72720,7 +72717,7 @@
         <v>60</v>
       </c>
       <c r="X46" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y46" s="0" t="s">
         <v>62</v>
@@ -72771,7 +72768,7 @@
         <v>12011169</v>
       </c>
       <c r="AP46" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -72887,7 +72884,7 @@
         <v>12011170</v>
       </c>
       <c r="AP47" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -73003,7 +73000,7 @@
         <v>12011171</v>
       </c>
       <c r="AP48" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -73119,7 +73116,7 @@
         <v>12011172</v>
       </c>
       <c r="AP49" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -73669,7 +73666,7 @@
         <v>59</v>
       </c>
       <c r="AE54" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF54" s="0" t="s">
         <v>330</v>
@@ -73764,7 +73761,7 @@
         <v>60</v>
       </c>
       <c r="X55" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y55" s="0" t="s">
         <v>62</v>
@@ -73785,7 +73782,7 @@
         <v>59</v>
       </c>
       <c r="AE55" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF55" s="0" t="s">
         <v>330</v>
@@ -73931,7 +73928,7 @@
         <v>12011167</v>
       </c>
       <c r="AP56" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74047,7 +74044,7 @@
         <v>12011168</v>
       </c>
       <c r="AP57" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74112,7 +74109,7 @@
         <v>60</v>
       </c>
       <c r="X58" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y58" s="0" t="s">
         <v>62</v>
@@ -74163,7 +74160,7 @@
         <v>12011169</v>
       </c>
       <c r="AP58" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74279,7 +74276,7 @@
         <v>12011170</v>
       </c>
       <c r="AP59" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74395,7 +74392,7 @@
         <v>12011171</v>
       </c>
       <c r="AP60" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74511,7 +74508,7 @@
         <v>12011172</v>
       </c>
       <c r="AP61" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75061,7 +75058,7 @@
         <v>59</v>
       </c>
       <c r="AE66" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF66" s="0" t="s">
         <v>330</v>
@@ -75156,7 +75153,7 @@
         <v>60</v>
       </c>
       <c r="X67" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y67" s="0" t="s">
         <v>62</v>
@@ -75177,7 +75174,7 @@
         <v>59</v>
       </c>
       <c r="AE67" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF67" s="0" t="s">
         <v>330</v>
@@ -75323,7 +75320,7 @@
         <v>12011167</v>
       </c>
       <c r="AP68" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75439,7 +75436,7 @@
         <v>12011168</v>
       </c>
       <c r="AP69" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75504,7 +75501,7 @@
         <v>60</v>
       </c>
       <c r="X70" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y70" s="0" t="s">
         <v>62</v>
@@ -75555,7 +75552,7 @@
         <v>12011169</v>
       </c>
       <c r="AP70" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75671,7 +75668,7 @@
         <v>12011170</v>
       </c>
       <c r="AP71" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75787,7 +75784,7 @@
         <v>12011171</v>
       </c>
       <c r="AP72" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -75903,7 +75900,7 @@
         <v>12011172</v>
       </c>
       <c r="AP73" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76453,7 +76450,7 @@
         <v>59</v>
       </c>
       <c r="AE78" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF78" s="0" t="s">
         <v>330</v>
@@ -76548,7 +76545,7 @@
         <v>60</v>
       </c>
       <c r="X79" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y79" s="0" t="s">
         <v>62</v>
@@ -76569,7 +76566,7 @@
         <v>59</v>
       </c>
       <c r="AE79" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF79" s="0" t="s">
         <v>330</v>
@@ -76715,7 +76712,7 @@
         <v>12011167</v>
       </c>
       <c r="AP80" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76831,7 +76828,7 @@
         <v>12011168</v>
       </c>
       <c r="AP81" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76896,7 +76893,7 @@
         <v>60</v>
       </c>
       <c r="X82" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y82" s="0" t="s">
         <v>62</v>
@@ -76947,7 +76944,7 @@
         <v>12011169</v>
       </c>
       <c r="AP82" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -77063,7 +77060,7 @@
         <v>12011170</v>
       </c>
       <c r="AP83" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -77179,7 +77176,7 @@
         <v>12011171</v>
       </c>
       <c r="AP84" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -77295,7 +77292,7 @@
         <v>12011172</v>
       </c>
       <c r="AP85" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -77845,7 +77842,7 @@
         <v>59</v>
       </c>
       <c r="AE90" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF90" s="0" t="s">
         <v>330</v>
@@ -77940,7 +77937,7 @@
         <v>60</v>
       </c>
       <c r="X91" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y91" s="0" t="s">
         <v>62</v>
@@ -77961,7 +77958,7 @@
         <v>59</v>
       </c>
       <c r="AE91" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF91" s="0" t="s">
         <v>330</v>
@@ -78107,7 +78104,7 @@
         <v>12011167</v>
       </c>
       <c r="AP92" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -78223,7 +78220,7 @@
         <v>12011168</v>
       </c>
       <c r="AP93" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -78288,7 +78285,7 @@
         <v>60</v>
       </c>
       <c r="X94" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y94" s="0" t="s">
         <v>62</v>
@@ -78339,7 +78336,7 @@
         <v>12011169</v>
       </c>
       <c r="AP94" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -78455,7 +78452,7 @@
         <v>12011170</v>
       </c>
       <c r="AP95" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -78571,7 +78568,7 @@
         <v>12011171</v>
       </c>
       <c r="AP96" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -78687,7 +78684,7 @@
         <v>12011172</v>
       </c>
       <c r="AP97" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79237,7 +79234,7 @@
         <v>59</v>
       </c>
       <c r="AE102" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF102" s="0" t="s">
         <v>330</v>
@@ -79332,7 +79329,7 @@
         <v>60</v>
       </c>
       <c r="X103" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y103" s="0" t="s">
         <v>62</v>
@@ -79353,7 +79350,7 @@
         <v>59</v>
       </c>
       <c r="AE103" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF103" s="0" t="s">
         <v>330</v>
@@ -79499,7 +79496,7 @@
         <v>12011167</v>
       </c>
       <c r="AP104" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79615,7 +79612,7 @@
         <v>12011168</v>
       </c>
       <c r="AP105" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79680,7 +79677,7 @@
         <v>60</v>
       </c>
       <c r="X106" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y106" s="0" t="s">
         <v>62</v>
@@ -79731,7 +79728,7 @@
         <v>12011169</v>
       </c>
       <c r="AP106" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79847,7 +79844,7 @@
         <v>12011170</v>
       </c>
       <c r="AP107" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -79963,7 +79960,7 @@
         <v>12011171</v>
       </c>
       <c r="AP108" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -80079,7 +80076,7 @@
         <v>12011172</v>
       </c>
       <c r="AP109" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -80629,7 +80626,7 @@
         <v>59</v>
       </c>
       <c r="AE114" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF114" s="0" t="s">
         <v>330</v>
@@ -80724,7 +80721,7 @@
         <v>60</v>
       </c>
       <c r="X115" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y115" s="0" t="s">
         <v>62</v>
@@ -80745,7 +80742,7 @@
         <v>59</v>
       </c>
       <c r="AE115" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF115" s="0" t="s">
         <v>330</v>
@@ -80891,7 +80888,7 @@
         <v>12011167</v>
       </c>
       <c r="AP116" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -81007,7 +81004,7 @@
         <v>12011168</v>
       </c>
       <c r="AP117" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -81072,7 +81069,7 @@
         <v>60</v>
       </c>
       <c r="X118" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y118" s="0" t="s">
         <v>62</v>
@@ -81123,7 +81120,7 @@
         <v>12011169</v>
       </c>
       <c r="AP118" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -81239,7 +81236,7 @@
         <v>12011170</v>
       </c>
       <c r="AP119" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -81355,7 +81352,7 @@
         <v>12011171</v>
       </c>
       <c r="AP120" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -81471,7 +81468,7 @@
         <v>12011172</v>
       </c>
       <c r="AP121" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -82021,7 +82018,7 @@
         <v>59</v>
       </c>
       <c r="AE126" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF126" s="0" t="s">
         <v>330</v>
@@ -82116,7 +82113,7 @@
         <v>60</v>
       </c>
       <c r="X127" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y127" s="0" t="s">
         <v>62</v>
@@ -82137,7 +82134,7 @@
         <v>59</v>
       </c>
       <c r="AE127" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF127" s="0" t="s">
         <v>330</v>
@@ -82283,7 +82280,7 @@
         <v>12011167</v>
       </c>
       <c r="AP128" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -82399,7 +82396,7 @@
         <v>12011168</v>
       </c>
       <c r="AP129" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -82464,7 +82461,7 @@
         <v>60</v>
       </c>
       <c r="X130" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y130" s="0" t="s">
         <v>62</v>
@@ -82515,7 +82512,7 @@
         <v>12011169</v>
       </c>
       <c r="AP130" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -82631,7 +82628,7 @@
         <v>12011170</v>
       </c>
       <c r="AP131" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -82747,7 +82744,7 @@
         <v>12011171</v>
       </c>
       <c r="AP132" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -82863,7 +82860,7 @@
         <v>12011172</v>
       </c>
       <c r="AP133" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -83413,7 +83410,7 @@
         <v>59</v>
       </c>
       <c r="AE138" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF138" s="0" t="s">
         <v>330</v>
@@ -83508,7 +83505,7 @@
         <v>60</v>
       </c>
       <c r="X139" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y139" s="0" t="s">
         <v>62</v>
@@ -83529,7 +83526,7 @@
         <v>59</v>
       </c>
       <c r="AE139" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF139" s="0" t="s">
         <v>330</v>
@@ -83675,7 +83672,7 @@
         <v>12011167</v>
       </c>
       <c r="AP140" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -83791,7 +83788,7 @@
         <v>12011168</v>
       </c>
       <c r="AP141" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -83856,7 +83853,7 @@
         <v>60</v>
       </c>
       <c r="X142" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y142" s="0" t="s">
         <v>62</v>
@@ -83907,7 +83904,7 @@
         <v>12011169</v>
       </c>
       <c r="AP142" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -84023,7 +84020,7 @@
         <v>12011170</v>
       </c>
       <c r="AP143" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -84139,7 +84136,7 @@
         <v>12011171</v>
       </c>
       <c r="AP144" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -84255,7 +84252,7 @@
         <v>12011172</v>
       </c>
       <c r="AP145" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -84805,7 +84802,7 @@
         <v>59</v>
       </c>
       <c r="AE150" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF150" s="0" t="s">
         <v>330</v>
@@ -84900,7 +84897,7 @@
         <v>60</v>
       </c>
       <c r="X151" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y151" s="0" t="s">
         <v>62</v>
@@ -84921,7 +84918,7 @@
         <v>59</v>
       </c>
       <c r="AE151" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF151" s="0" t="s">
         <v>330</v>
@@ -85067,7 +85064,7 @@
         <v>12011167</v>
       </c>
       <c r="AP152" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -85183,7 +85180,7 @@
         <v>12011168</v>
       </c>
       <c r="AP153" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -85248,7 +85245,7 @@
         <v>60</v>
       </c>
       <c r="X154" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y154" s="0" t="s">
         <v>62</v>
@@ -85299,7 +85296,7 @@
         <v>12011169</v>
       </c>
       <c r="AP154" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -85415,7 +85412,7 @@
         <v>12011170</v>
       </c>
       <c r="AP155" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -85531,7 +85528,7 @@
         <v>12011171</v>
       </c>
       <c r="AP156" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -85647,7 +85644,7 @@
         <v>12011172</v>
       </c>
       <c r="AP157" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -86197,7 +86194,7 @@
         <v>59</v>
       </c>
       <c r="AE162" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF162" s="0" t="s">
         <v>330</v>
@@ -86292,7 +86289,7 @@
         <v>60</v>
       </c>
       <c r="X163" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y163" s="0" t="s">
         <v>62</v>
@@ -86313,7 +86310,7 @@
         <v>59</v>
       </c>
       <c r="AE163" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF163" s="0" t="s">
         <v>330</v>
@@ -86459,7 +86456,7 @@
         <v>12011167</v>
       </c>
       <c r="AP164" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -86575,7 +86572,7 @@
         <v>12011168</v>
       </c>
       <c r="AP165" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -86640,7 +86637,7 @@
         <v>60</v>
       </c>
       <c r="X166" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y166" s="0" t="s">
         <v>62</v>
@@ -86691,7 +86688,7 @@
         <v>12011169</v>
       </c>
       <c r="AP166" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -86807,7 +86804,7 @@
         <v>12011170</v>
       </c>
       <c r="AP167" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -86923,7 +86920,7 @@
         <v>12011171</v>
       </c>
       <c r="AP168" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -87039,7 +87036,7 @@
         <v>12011172</v>
       </c>
       <c r="AP169" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -87589,7 +87586,7 @@
         <v>59</v>
       </c>
       <c r="AE174" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF174" s="0" t="s">
         <v>330</v>
@@ -87684,7 +87681,7 @@
         <v>60</v>
       </c>
       <c r="X175" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y175" s="0" t="s">
         <v>62</v>
@@ -87705,7 +87702,7 @@
         <v>59</v>
       </c>
       <c r="AE175" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF175" s="0" t="s">
         <v>330</v>
@@ -87851,7 +87848,7 @@
         <v>12011167</v>
       </c>
       <c r="AP176" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -87967,7 +87964,7 @@
         <v>12011168</v>
       </c>
       <c r="AP177" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -88032,7 +88029,7 @@
         <v>60</v>
       </c>
       <c r="X178" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y178" s="0" t="s">
         <v>62</v>
@@ -88083,7 +88080,7 @@
         <v>12011169</v>
       </c>
       <c r="AP178" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -88199,7 +88196,7 @@
         <v>12011170</v>
       </c>
       <c r="AP179" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -88315,7 +88312,7 @@
         <v>12011171</v>
       </c>
       <c r="AP180" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -88431,7 +88428,7 @@
         <v>12011172</v>
       </c>
       <c r="AP181" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/valuation-app/src/test/resources/excel/NewExposures.xlsx
+++ b/valuation-app/src/test/resources/excel/NewExposures.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="IRS-Cleared" sheetId="1" state="visible" r:id="rId2"/>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Portfolio ID</t>
   </si>
   <si>
-    <t xml:space="preserve">acc1</t>
+    <t xml:space="preserve">ACUOSG8745</t>
   </si>
   <si>
     <t xml:space="preserve">AUD</t>
@@ -1154,57 +1154,56 @@
   </sheetPr>
   <dimension ref="A1:AU320"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z286" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P137" activeCellId="0" sqref="P137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43625,40 +43624,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.35204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.0459183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.65816326530612"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.07142857142857"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.5969387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.54081632653061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.26020408163265"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="30.4744897959184"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4948979591837"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.9897959183673"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.9081632653061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.5204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.5765306122449"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.2959183673469"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="18.2397959183673"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="20.4642857142857"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="17.9642857142857"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.8826530612245"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.734693877551"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="23.8010204081633"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="10.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54123,57 +54122,58 @@
   </sheetPr>
   <dimension ref="A1:AT101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.35204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.0459183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.0459183673469"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="5.5969387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.54081632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.5765306122449"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="30.4744897959184"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4948979591837"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.9897959183673"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.6785714285714"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.2142857142857"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.5204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.5765306122449"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.2959183673469"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="18.2397959183673"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.5765306122449"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="30.4744897959184"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="19.4948979591837"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.9897959183673"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="36.5816326530612"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="19.2142857142857"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="18.5204081632653"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.5765306122449"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="16.2959183673469"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="18.2397959183673"/>
-    <col collapsed="false" hidden="false" max="41" min="40" style="0" width="16.9897959183673"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="15.8826530612245"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="10.734693877551"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="23.8010204081633"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="10.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="47" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="41" min="40" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="47" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67374,53 +67374,52 @@
   </sheetPr>
   <dimension ref="A1:AP181"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AE90" activeCellId="0" sqref="AE90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.85204081632653"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="39" min="38" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="39" min="38" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
